--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/code/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1B5D32-3F64-3748-B75D-7B2D1F1E4CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBDF60-A50C-4242-9527-02A091A5A784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="בריאות 2017" sheetId="3" r:id="rId1"/>
@@ -656,9 +656,6 @@
     <t>רכישת שירותי הפעלה וקיום תכנית "אוניברסיטה בעם"</t>
   </si>
   <si>
-    <t xml:space="preserve">  'ביצוע בדיקת זכאות לנכות על פי חוק השיקום</t>
-  </si>
-  <si>
     <t>מאות</t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t xml:space="preserve">מנהל הכשרה והתפתחות מקצועית לעובדי הוראה </t>
+  </si>
+  <si>
+    <t>ביצוע בדיקת זכאות לנכות על פי חוק השיקום</t>
   </si>
 </sst>
 </file>
@@ -1794,6 +1794,33 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1803,48 +1830,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,6 +1863,33 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,33 +1906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A57" activeCellId="2" sqref="A50:XFD50 A56:XFD56 A57:XFD57"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15"/>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>171</v>
@@ -3160,13 +3160,13 @@
       <c r="B30" s="113"/>
       <c r="C30" s="110"/>
       <c r="D30" s="54" t="s">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="E30" s="11">
         <v>650</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
@@ -3178,7 +3178,7 @@
       <c r="B31" s="113"/>
       <c r="C31" s="111"/>
       <c r="D31" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="11">
         <v>407</v>
@@ -3195,10 +3195,10 @@
       </c>
       <c r="B32" s="113"/>
       <c r="C32" s="109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="11">
         <v>150000</v>
@@ -3218,7 +3218,7 @@
       <c r="B33" s="113"/>
       <c r="C33" s="110"/>
       <c r="D33" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E33" s="11">
         <v>50000</v>
@@ -3237,7 +3237,7 @@
       <c r="B34" s="113"/>
       <c r="C34" s="110"/>
       <c r="D34" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E34" s="11">
         <v>18146</v>
@@ -3256,7 +3256,7 @@
       <c r="B35" s="113"/>
       <c r="C35" s="110"/>
       <c r="D35" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E35" s="11">
         <v>2260</v>
@@ -3276,7 +3276,7 @@
       <c r="B36" s="113"/>
       <c r="C36" s="111"/>
       <c r="D36" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E36" s="11">
         <v>350</v>
@@ -3293,10 +3293,10 @@
       </c>
       <c r="B37" s="113"/>
       <c r="C37" s="110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E37" s="11">
         <v>9500</v>
@@ -3314,7 +3314,7 @@
       <c r="B38" s="113"/>
       <c r="C38" s="110"/>
       <c r="D38" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="11">
         <v>4000</v>
@@ -3332,7 +3332,7 @@
       <c r="B39" s="113"/>
       <c r="C39" s="110"/>
       <c r="D39" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E39" s="11">
         <v>4000</v>
@@ -3350,7 +3350,7 @@
       <c r="B40" s="113"/>
       <c r="C40" s="110"/>
       <c r="D40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="11">
         <v>450</v>
@@ -3368,7 +3368,7 @@
       <c r="B41" s="113"/>
       <c r="C41" s="111"/>
       <c r="D41" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E41" s="11">
         <v>400</v>
@@ -3386,7 +3386,7 @@
       <c r="B42" s="113"/>
       <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" s="11">
         <v>1000</v>
@@ -3404,10 +3404,10 @@
       </c>
       <c r="B43" s="113"/>
       <c r="C43" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E43" s="11">
         <v>3620</v>
@@ -3425,7 +3425,7 @@
       <c r="B44" s="113"/>
       <c r="C44" s="110"/>
       <c r="D44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E44" s="11">
         <v>2000</v>
@@ -3443,7 +3443,7 @@
       <c r="B45" s="113"/>
       <c r="C45" s="110"/>
       <c r="D45" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" s="11">
         <v>1146</v>
@@ -3461,13 +3461,13 @@
       <c r="B46" s="113"/>
       <c r="C46" s="111"/>
       <c r="D46" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E46" s="11">
         <v>500</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
@@ -3478,16 +3478,16 @@
       </c>
       <c r="B47" s="113"/>
       <c r="C47" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E47" s="11">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
@@ -3501,7 +3501,7 @@
       <c r="B48" s="113"/>
       <c r="C48" s="111"/>
       <c r="D48" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="11">
         <v>1000</v>
@@ -3518,16 +3518,16 @@
       </c>
       <c r="B49" s="113"/>
       <c r="C49" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="57" t="s">
         <v>225</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>226</v>
       </c>
       <c r="E49" s="58">
         <v>3870</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
@@ -3538,13 +3538,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="D50" s="57" t="s">
         <v>229</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>230</v>
       </c>
       <c r="E50" s="58">
         <v>100000</v>
@@ -3561,10 +3561,10 @@
       </c>
       <c r="B51" s="115"/>
       <c r="C51" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="57" t="s">
         <v>231</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>232</v>
       </c>
       <c r="E51" s="58">
         <v>80237</v>
@@ -3581,16 +3581,16 @@
       </c>
       <c r="B52" s="115"/>
       <c r="C52" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="57" t="s">
         <v>233</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>234</v>
       </c>
       <c r="E52" s="58">
         <v>3000</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="63"/>
@@ -3601,10 +3601,10 @@
       </c>
       <c r="B53" s="115"/>
       <c r="C53" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="57" t="s">
         <v>236</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>237</v>
       </c>
       <c r="E53" s="58">
         <v>1500</v>
@@ -3621,10 +3621,10 @@
       </c>
       <c r="B54" s="115"/>
       <c r="C54" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="66" t="s">
         <v>238</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>239</v>
       </c>
       <c r="E54" s="67">
         <v>500</v>
@@ -3645,14 +3645,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B2:B49"/>
+    <mergeCell ref="B50:B54"/>
     <mergeCell ref="C6:C31"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B2:B49"/>
-    <mergeCell ref="B50:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3660,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A101" activeCellId="4" sqref="A52:XFD52 A79:XFD79 A95:XFD95 A100:XFD100 A101:XFD101"/>
@@ -3682,13 +3682,13 @@
     <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>78</v>
@@ -3740,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="110"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="116" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3759,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="110"/>
-      <c r="C5" s="127"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="110"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="116" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3793,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="110"/>
-      <c r="C7" s="126"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="6" t="s">
         <v>85</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="110"/>
-      <c r="C8" s="126"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="6" t="s">
         <v>89</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="110"/>
-      <c r="C9" s="126"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="6" t="s">
         <v>110</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="110"/>
-      <c r="C10" s="127"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="110"/>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="116" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3894,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="110"/>
-      <c r="C13" s="126"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="6" t="s">
         <v>106</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="110"/>
-      <c r="C14" s="126"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="110"/>
-      <c r="C15" s="126"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="110"/>
-      <c r="C16" s="126"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="6" t="s">
         <v>103</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="110"/>
-      <c r="C17" s="126"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="6" t="s">
         <v>116</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="110"/>
-      <c r="C18" s="126"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="6" t="s">
         <v>119</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="110"/>
-      <c r="C19" s="126"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="110"/>
-      <c r="C20" s="126"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="6" t="s">
         <v>122</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="110"/>
-      <c r="C21" s="126"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="110"/>
-      <c r="C22" s="127"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
@@ -4525,10 +4525,10 @@
       <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="122" t="s">
+      <c r="B52" s="122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="119" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -4547,8 +4547,8 @@
       <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="123"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="120"/>
       <c r="D53" s="21" t="s">
         <v>152</v>
       </c>
@@ -4563,8 +4563,8 @@
       <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="120"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="120"/>
       <c r="D54" s="21" t="s">
         <v>145</v>
       </c>
@@ -4579,8 +4579,8 @@
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="120"/>
       <c r="D55" s="21" t="s">
         <v>151</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="123"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="120"/>
       <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
@@ -4611,8 +4611,8 @@
       <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="123"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="120"/>
       <c r="D57" s="21" t="s">
         <v>132</v>
       </c>
@@ -4627,8 +4627,8 @@
       <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="123"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="120"/>
       <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
@@ -4643,8 +4643,8 @@
       <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="123"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="21" t="s">
         <v>153</v>
       </c>
@@ -4659,8 +4659,8 @@
       <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="123"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="21" t="s">
         <v>165</v>
       </c>
@@ -4675,8 +4675,8 @@
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="120"/>
-      <c r="C61" s="124"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="21" t="s">
         <v>146</v>
       </c>
@@ -4691,8 +4691,8 @@
       <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="119" t="s">
+      <c r="B62" s="123"/>
+      <c r="C62" s="122" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="21" t="s">
@@ -4709,8 +4709,8 @@
       <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="21" t="s">
         <v>159</v>
       </c>
@@ -4725,8 +4725,8 @@
       <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="21" t="s">
         <v>144</v>
       </c>
@@ -4741,8 +4741,8 @@
       <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="21" t="s">
         <v>134</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="21" t="s">
         <v>143</v>
       </c>
@@ -4773,8 +4773,8 @@
       <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="21" t="s">
         <v>161</v>
       </c>
@@ -4789,8 +4789,8 @@
       <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="21" t="s">
         <v>162</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="21" t="s">
         <v>139</v>
       </c>
@@ -4821,8 +4821,8 @@
       <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="21" t="s">
         <v>136</v>
       </c>
@@ -4837,8 +4837,8 @@
       <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
@@ -4853,8 +4853,8 @@
       <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="21" t="s">
         <v>137</v>
       </c>
@@ -4869,8 +4869,8 @@
       <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="21" t="s">
         <v>164</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="120"/>
-      <c r="C74" s="121"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="124"/>
       <c r="D74" s="21" t="s">
         <v>160</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="122" t="s">
+      <c r="B75" s="123"/>
+      <c r="C75" s="119" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -4919,8 +4919,8 @@
       <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="123"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="120"/>
       <c r="D76" s="21" t="s">
         <v>157</v>
       </c>
@@ -4935,8 +4935,8 @@
       <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="120"/>
-      <c r="C77" s="124"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="121"/>
       <c r="D77" s="21" t="s">
         <v>156</v>
       </c>
@@ -5232,9 +5232,9 @@
       <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="116"/>
-      <c r="C93" s="119" t="s">
-        <v>242</v>
+      <c r="B93" s="125"/>
+      <c r="C93" s="122" t="s">
+        <v>241</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>148</v>
@@ -5250,8 +5250,8 @@
       <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="117"/>
-      <c r="C94" s="120"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="21" t="s">
         <v>149</v>
       </c>
@@ -5266,8 +5266,8 @@
       <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="120"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="21" t="s">
         <v>128</v>
       </c>
@@ -5280,8 +5280,8 @@
       <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="118"/>
-      <c r="C96" s="121"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="124"/>
       <c r="D96" s="21" t="s">
         <v>147</v>
       </c>
@@ -5294,6 +5294,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B51"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B52:B77"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="C75:C77"/>
     <mergeCell ref="C31:C46"/>
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C2:C3"/>
@@ -5301,18 +5313,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B2:B51"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B52:B77"/>
-    <mergeCell ref="C62:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5343,13 +5343,13 @@
     <row r="1" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -5365,13 +5365,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" s="16">
         <v>950000</v>
@@ -5386,10 +5386,10 @@
       <c r="A3" s="95">
         <v>2</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
       <c r="D3" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="16">
         <v>50062</v>
@@ -5404,10 +5404,10 @@
       <c r="A4" s="95">
         <v>3</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="16">
         <v>28379</v>
@@ -5422,16 +5422,16 @@
       <c r="A5" s="95">
         <v>4</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="99">
         <v>25000</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -5440,10 +5440,10 @@
       <c r="A6" s="95">
         <v>5</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E6" s="16">
         <v>22875</v>
@@ -5458,10 +5458,10 @@
       <c r="A7" s="95">
         <v>6</v>
       </c>
-      <c r="B7" s="130"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="129"/>
       <c r="D7" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="16">
         <v>4493</v>
@@ -5476,12 +5476,12 @@
       <c r="A8" s="95">
         <v>7</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>254</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>255</v>
       </c>
       <c r="E8" s="16">
         <v>265000</v>
@@ -5496,10 +5496,10 @@
       <c r="A9" s="95">
         <v>8</v>
       </c>
-      <c r="B9" s="130"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="129"/>
       <c r="D9" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="16">
         <v>349</v>
@@ -5514,12 +5514,12 @@
       <c r="A10" s="95">
         <v>9</v>
       </c>
-      <c r="B10" s="130"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="128" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>257</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>258</v>
       </c>
       <c r="E10" s="16">
         <v>158201</v>
@@ -5534,16 +5534,16 @@
       <c r="A11" s="95">
         <v>10</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="16">
         <v>29559</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -5552,16 +5552,16 @@
       <c r="A12" s="95">
         <v>11</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="16">
         <v>5800</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="85"/>
       <c r="H12" s="80"/>
@@ -5570,16 +5570,16 @@
       <c r="A13" s="95">
         <v>12</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="16">
         <v>3200</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
@@ -5588,10 +5588,10 @@
       <c r="A14" s="95">
         <v>13</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="129"/>
       <c r="D14" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="16">
         <v>570</v>
@@ -5606,12 +5606,12 @@
       <c r="A15" s="95">
         <v>14</v>
       </c>
-      <c r="B15" s="130"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>263</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>264</v>
       </c>
       <c r="E15" s="16">
         <v>42000</v>
@@ -5626,10 +5626,10 @@
       <c r="A16" s="95">
         <v>15</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="16">
         <v>49000</v>
@@ -5644,10 +5644,10 @@
       <c r="A17" s="95">
         <v>16</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="16">
         <v>4000</v>
@@ -5662,10 +5662,10 @@
       <c r="A18" s="95">
         <v>17</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="16">
         <v>2673</v>
@@ -5680,10 +5680,10 @@
       <c r="A19" s="95">
         <v>18</v>
       </c>
-      <c r="B19" s="130"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="129"/>
       <c r="D19" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="16">
         <v>4000</v>
@@ -5698,18 +5698,18 @@
       <c r="A20" s="95">
         <v>19</v>
       </c>
-      <c r="B20" s="130"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="128" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>269</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="E20" s="16">
         <v>50649</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="80"/>
@@ -5718,10 +5718,10 @@
       <c r="A21" s="95">
         <v>20</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21" s="16">
         <v>10246</v>
@@ -5736,10 +5736,10 @@
       <c r="A22" s="95">
         <v>21</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" s="16">
         <v>9120</v>
@@ -5754,10 +5754,10 @@
       <c r="A23" s="95">
         <v>22</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="16">
         <v>3006</v>
@@ -5772,10 +5772,10 @@
       <c r="A24" s="95">
         <v>23</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="39">
         <v>3482</v>
@@ -5790,10 +5790,10 @@
       <c r="A25" s="95">
         <v>24</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="129"/>
       <c r="D25" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="16">
         <v>2121</v>
@@ -5808,12 +5808,12 @@
       <c r="A26" s="95">
         <v>25</v>
       </c>
-      <c r="B26" s="130"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="128" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>277</v>
       </c>
       <c r="E26" s="16">
         <v>15999</v>
@@ -5828,10 +5828,10 @@
       <c r="A27" s="95">
         <v>26</v>
       </c>
-      <c r="B27" s="130"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="129"/>
       <c r="D27" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E27" s="16">
         <v>7171</v>
@@ -5846,12 +5846,12 @@
       <c r="A28" s="95">
         <v>27</v>
       </c>
-      <c r="B28" s="130"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>279</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>280</v>
       </c>
       <c r="E28" s="16">
         <v>21639</v>
@@ -5866,12 +5866,12 @@
       <c r="A29" s="95">
         <v>28</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E29" s="16">
         <v>30000</v>
@@ -5886,10 +5886,10 @@
       <c r="A30" s="95">
         <v>29</v>
       </c>
-      <c r="B30" s="130"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="97"/>
       <c r="D30" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E30" s="16">
         <v>6134</v>
@@ -5904,10 +5904,10 @@
       <c r="A31" s="95">
         <v>30</v>
       </c>
-      <c r="B31" s="130"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="97"/>
       <c r="D31" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="16">
         <v>2674</v>
@@ -5922,10 +5922,10 @@
       <c r="A32" s="95">
         <v>31</v>
       </c>
-      <c r="B32" s="130"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="97"/>
       <c r="D32" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="16">
         <v>6204</v>
@@ -5940,10 +5940,10 @@
       <c r="A33" s="95">
         <v>32</v>
       </c>
-      <c r="B33" s="130"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="97"/>
       <c r="D33" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E33" s="16">
         <v>1923</v>
@@ -5958,10 +5958,10 @@
       <c r="A34" s="95">
         <v>33</v>
       </c>
-      <c r="B34" s="130"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="97"/>
       <c r="D34" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E34" s="16">
         <v>565</v>
@@ -5976,10 +5976,10 @@
       <c r="A35" s="95">
         <v>34</v>
       </c>
-      <c r="B35" s="130"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="103"/>
       <c r="D35" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E35" s="16">
         <v>4579</v>
@@ -5994,12 +5994,12 @@
       <c r="A36" s="95">
         <v>35</v>
       </c>
-      <c r="B36" s="130"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="128" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>289</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>290</v>
       </c>
       <c r="E36" s="16">
         <v>7744</v>
@@ -6014,10 +6014,10 @@
       <c r="A37" s="95">
         <v>36</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E37" s="16">
         <v>1500</v>
@@ -6032,10 +6032,10 @@
       <c r="A38" s="95">
         <v>37</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="130"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E38" s="16">
         <v>800</v>
@@ -6050,10 +6050,10 @@
       <c r="A39" s="95">
         <v>38</v>
       </c>
-      <c r="B39" s="130"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="129"/>
       <c r="D39" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E39" s="16">
         <v>500</v>
@@ -6068,12 +6068,12 @@
       <c r="A40" s="95">
         <v>39</v>
       </c>
-      <c r="B40" s="130"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="128" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>295</v>
       </c>
       <c r="E40" s="16">
         <v>5722</v>
@@ -6088,10 +6088,10 @@
       <c r="A41" s="95">
         <v>40</v>
       </c>
-      <c r="B41" s="130"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="129"/>
       <c r="D41" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E41" s="16">
         <v>2348</v>
@@ -6106,12 +6106,12 @@
       <c r="A42" s="95">
         <v>41</v>
       </c>
-      <c r="B42" s="130"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="128" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>297</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>298</v>
       </c>
       <c r="E42" s="16">
         <v>1231</v>
@@ -6127,10 +6127,10 @@
       <c r="A43" s="95">
         <v>42</v>
       </c>
-      <c r="B43" s="130"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="129"/>
       <c r="D43" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E43" s="104">
         <v>9575</v>
@@ -6146,17 +6146,17 @@
         <v>39</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C44" s="134"/>
       <c r="D44" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E44" s="105">
         <v>162000</v>
       </c>
       <c r="F44" s="100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G44" s="85"/>
       <c r="H44" s="80"/>
@@ -6168,7 +6168,7 @@
       <c r="B45" s="135"/>
       <c r="C45" s="136"/>
       <c r="D45" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E45" s="105">
         <v>18272</v>
@@ -6186,7 +6186,7 @@
       <c r="B46" s="135"/>
       <c r="C46" s="136"/>
       <c r="D46" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E46" s="105">
         <v>19000</v>
@@ -6204,7 +6204,7 @@
       <c r="B47" s="135"/>
       <c r="C47" s="136"/>
       <c r="D47" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E47" s="105">
         <v>6000</v>
@@ -6222,7 +6222,7 @@
       <c r="B48" s="135"/>
       <c r="C48" s="136"/>
       <c r="D48" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E48" s="105">
         <v>3500</v>
@@ -6240,7 +6240,7 @@
       <c r="B49" s="135"/>
       <c r="C49" s="136"/>
       <c r="D49" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E49" s="105">
         <v>360</v>
@@ -6256,7 +6256,7 @@
       <c r="B50" s="137"/>
       <c r="C50" s="138"/>
       <c r="D50" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E50" s="105">
         <v>1700</v>
@@ -6272,13 +6272,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>307</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>308</v>
       </c>
       <c r="E51" s="105">
         <v>75773</v>
@@ -6293,10 +6293,10 @@
       <c r="A52" s="95">
         <v>46</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E52" s="16">
         <v>6641</v>
@@ -6311,10 +6311,10 @@
       <c r="A53" s="95">
         <v>47</v>
       </c>
-      <c r="B53" s="130"/>
-      <c r="C53" s="130"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
       <c r="D53" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E53" s="105">
         <v>2586</v>
@@ -6329,10 +6329,10 @@
       <c r="A54" s="95">
         <v>48</v>
       </c>
-      <c r="B54" s="130"/>
+      <c r="B54" s="132"/>
       <c r="C54" s="129"/>
       <c r="D54" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E54" s="16">
         <v>894</v>
@@ -6349,10 +6349,10 @@
       </c>
       <c r="B55" s="129"/>
       <c r="C55" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>312</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>313</v>
       </c>
       <c r="E55" s="16">
         <v>500</v>
@@ -6368,11 +6368,11 @@
         <v>50</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="134"/>
       <c r="D56" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E56" s="16">
         <v>25136</v>
@@ -6390,13 +6390,13 @@
       <c r="B57" s="135"/>
       <c r="C57" s="136"/>
       <c r="D57" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E57" s="16">
         <v>8715</v>
       </c>
       <c r="F57" s="101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="80"/>
@@ -6406,7 +6406,7 @@
       <c r="B58" s="137"/>
       <c r="C58" s="138"/>
       <c r="D58" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E58" s="105">
         <v>704</v>
@@ -6422,19 +6422,19 @@
         <v>52</v>
       </c>
       <c r="B59" s="128" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="128" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="D59" s="37" t="s">
         <v>319</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>320</v>
       </c>
       <c r="E59" s="16">
         <v>5000</v>
       </c>
       <c r="F59" s="101" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="80"/>
@@ -6443,10 +6443,10 @@
       <c r="A60" s="95">
         <v>53</v>
       </c>
-      <c r="B60" s="130"/>
-      <c r="C60" s="130"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
       <c r="D60" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E60" s="16">
         <v>4000</v>
@@ -6461,10 +6461,10 @@
       <c r="A61" s="95">
         <v>54</v>
       </c>
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
       <c r="D61" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E61" s="16">
         <v>2500</v>
@@ -6479,10 +6479,10 @@
       <c r="A62" s="95">
         <v>55</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
       <c r="D62" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E62" s="16">
         <v>3150</v>
@@ -6497,10 +6497,10 @@
       <c r="A63" s="95">
         <v>56</v>
       </c>
-      <c r="B63" s="130"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="129"/>
       <c r="D63" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E63" s="16">
         <v>1000</v>
@@ -6515,12 +6515,12 @@
       <c r="A64" s="95">
         <v>57</v>
       </c>
-      <c r="B64" s="130"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="128" t="s">
+        <v>325</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>326</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>327</v>
       </c>
       <c r="E64" s="16">
         <v>8000</v>
@@ -6535,16 +6535,16 @@
       <c r="A65" s="95">
         <v>58</v>
       </c>
-      <c r="B65" s="130"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="129"/>
       <c r="D65" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E65" s="16">
         <v>1703</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G65" s="85"/>
       <c r="H65" s="80"/>
@@ -6553,28 +6553,28 @@
       <c r="A66" s="95">
         <v>59</v>
       </c>
-      <c r="B66" s="130"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>329</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>330</v>
       </c>
       <c r="E66" s="39">
         <v>250</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="80"/>
     </row>
     <row r="67" spans="1:10" ht="56.25" customHeight="1">
       <c r="A67" s="95"/>
-      <c r="B67" s="130"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="129"/>
       <c r="D67" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E67" s="105">
         <v>2000</v>
@@ -6597,18 +6597,18 @@
       <c r="A68" s="95">
         <v>64</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="C68" s="131"/>
+      <c r="D68" s="37" t="s">
         <v>336</v>
-      </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="37" t="s">
-        <v>337</v>
       </c>
       <c r="E68" s="104">
         <v>7796</v>
       </c>
       <c r="F68" s="101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -6618,19 +6618,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="128" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="D69" s="37" t="s">
         <v>333</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>334</v>
       </c>
       <c r="E69" s="16">
         <v>4000</v>
       </c>
       <c r="F69" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G69" s="85"/>
       <c r="H69" s="80"/>
@@ -6642,7 +6642,7 @@
       <c r="B70" s="129"/>
       <c r="C70" s="129"/>
       <c r="D70" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E70" s="16">
         <v>2500</v>
@@ -8162,6 +8162,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B68:C68"/>
@@ -8178,11 +8183,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8195,10 +8195,10 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -8221,7 +8221,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -8234,10 +8234,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="139"/>
+      <c r="C2" s="148"/>
       <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
@@ -8252,8 +8252,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="140"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="149"/>
       <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
@@ -8268,8 +8268,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="141"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="B5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="142" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="45" t="s">
@@ -8305,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="113"/>
-      <c r="C6" s="149"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="45" t="s">
         <v>16</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="113"/>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="144" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -8339,7 +8339,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="113"/>
-      <c r="C8" s="151"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="147"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="111"/>
       <c r="D17" s="14" t="s">
         <v>32</v>
@@ -8700,7 +8700,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="147"/>
+      <c r="B30" s="141"/>
       <c r="C30" s="17"/>
       <c r="D30" s="14" t="s">
         <v>28</v>
@@ -8716,8 +8716,8 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="152" t="s">
+      <c r="B31" s="125"/>
+      <c r="C31" s="146" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -8734,8 +8734,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="153"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="14" t="s">
         <v>20</v>
       </c>
@@ -8755,8 +8755,8 @@
     </row>
     <row r="35" spans="1:9">
       <c r="E35" s="10"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="140"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
@@ -8931,6 +8931,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C9:C13"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="C5:C6"/>
@@ -8942,9 +8945,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/code/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBDF60-A50C-4242-9527-02A091A5A784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A12362-B448-5248-8DA7-C3DA6036328F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,9 +668,6 @@
     <t xml:space="preserve">מתן שירותי שירות תותבות, סדים ונעליים עבור נכי גפיים בישראל </t>
   </si>
   <si>
-    <t xml:space="preserve">מכשירי שיקום וניידות- התאמה, תיקון וחלוקת מכשירי שיקום וניידות </t>
-  </si>
-  <si>
     <t xml:space="preserve">תקשורת תומכת וחלופית </t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t>ביצוע בדיקת זכאות לנכות על פי חוק השיקום</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מכשירי שיקום וניידות – אספקה, התאמה, תיקון וחלוקת מכשירי שיקום וניידות </t>
   </si>
 </sst>
 </file>
@@ -1776,23 +1776,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1803,36 +1830,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,9 +1845,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,6 +1863,24 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1888,24 +1906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15"/>
@@ -2641,8 +2641,8 @@
       <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>239</v>
+      <c r="B2" s="111" t="s">
+        <v>238</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>171</v>
@@ -2663,8 +2663,8 @@
       <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="110"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="115"/>
       <c r="D3" s="5" t="s">
         <v>173</v>
       </c>
@@ -2681,8 +2681,8 @@
       <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="5" t="s">
         <v>174</v>
       </c>
@@ -2699,8 +2699,8 @@
       <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="5" t="s">
         <v>175</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="109" t="s">
         <v>176</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="110"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="5" t="s">
         <v>178</v>
       </c>
@@ -2755,8 +2755,8 @@
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="5" t="s">
         <v>180</v>
       </c>
@@ -2773,8 +2773,8 @@
       <c r="A9" s="74">
         <v>8</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="110"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="5" t="s">
         <v>182</v>
       </c>
@@ -2791,8 +2791,8 @@
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="5" t="s">
         <v>183</v>
       </c>
@@ -2809,8 +2809,8 @@
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="5" t="s">
         <v>184</v>
       </c>
@@ -2827,8 +2827,8 @@
       <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="5" t="s">
         <v>198</v>
       </c>
@@ -2847,8 +2847,8 @@
       <c r="A13" s="74">
         <v>12</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="110"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="5" t="s">
         <v>185</v>
       </c>
@@ -2865,8 +2865,8 @@
       <c r="A14" s="74">
         <v>13</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="110"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="5" t="s">
         <v>186</v>
       </c>
@@ -2883,8 +2883,8 @@
       <c r="A15" s="74">
         <v>14</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="5" t="s">
         <v>179</v>
       </c>
@@ -2903,8 +2903,8 @@
       <c r="A16" s="74">
         <v>15</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="5" t="s">
         <v>188</v>
       </c>
@@ -2921,8 +2921,8 @@
       <c r="A17" s="74">
         <v>16</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="5" t="s">
         <v>187</v>
       </c>
@@ -2941,8 +2941,8 @@
       <c r="A18" s="74">
         <v>17</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="110"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="5" t="s">
         <v>189</v>
       </c>
@@ -2959,8 +2959,8 @@
       <c r="A19" s="74">
         <v>18</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="110"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="5" t="s">
         <v>193</v>
       </c>
@@ -2979,8 +2979,8 @@
       <c r="A20" s="74">
         <v>19</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="110"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="5" t="s">
         <v>190</v>
       </c>
@@ -2997,8 +2997,8 @@
       <c r="A21" s="74">
         <v>20</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="110"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="5" t="s">
         <v>191</v>
       </c>
@@ -3015,8 +3015,8 @@
       <c r="A22" s="74">
         <v>21</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="110"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="5" t="s">
         <v>192</v>
       </c>
@@ -3029,8 +3029,8 @@
       <c r="A23" s="74">
         <v>22</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="5" t="s">
         <v>194</v>
       </c>
@@ -3047,8 +3047,8 @@
       <c r="A24" s="74">
         <v>23</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="110"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="5" t="s">
         <v>195</v>
       </c>
@@ -3065,8 +3065,8 @@
       <c r="A25" s="74">
         <v>24</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="5" t="s">
         <v>196</v>
       </c>
@@ -3083,8 +3083,8 @@
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="5" t="s">
         <v>197</v>
       </c>
@@ -3101,8 +3101,8 @@
       <c r="A27" s="74">
         <v>26</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="5" t="s">
         <v>181</v>
       </c>
@@ -3121,8 +3121,8 @@
       <c r="A28" s="74">
         <v>27</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="5" t="s">
         <v>199</v>
       </c>
@@ -3139,8 +3139,8 @@
       <c r="A29" s="74">
         <v>28</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="110"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="5" t="s">
         <v>200</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="A30" s="74">
         <v>29</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="110"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E30" s="11">
         <v>650</v>
@@ -3175,8 +3175,8 @@
       <c r="A31" s="74">
         <v>30</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="111"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="5" t="s">
         <v>202</v>
       </c>
@@ -3189,16 +3189,16 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:10" ht="44">
+    <row r="32" spans="1:10" ht="21">
       <c r="A32" s="74">
         <v>31</v>
       </c>
-      <c r="B32" s="113"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="109" t="s">
         <v>203</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="E32" s="11">
         <v>150000</v>
@@ -3215,8 +3215,8 @@
       <c r="A33" s="74">
         <v>32</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="5" t="s">
         <v>204</v>
       </c>
@@ -3234,10 +3234,10 @@
       <c r="A34" s="74">
         <v>33</v>
       </c>
-      <c r="B34" s="113"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="11">
         <v>18146</v>
@@ -3253,10 +3253,10 @@
       <c r="A35" s="74">
         <v>34</v>
       </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E35" s="11">
         <v>2260</v>
@@ -3273,10 +3273,10 @@
       <c r="A36" s="74">
         <v>35</v>
       </c>
-      <c r="B36" s="113"/>
-      <c r="C36" s="111"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="11">
         <v>350</v>
@@ -3291,12 +3291,12 @@
       <c r="A37" s="74">
         <v>36</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="110" t="s">
-        <v>243</v>
+      <c r="B37" s="112"/>
+      <c r="C37" s="115" t="s">
+        <v>242</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" s="11">
         <v>9500</v>
@@ -3311,10 +3311,10 @@
       <c r="A38" s="74">
         <v>37</v>
       </c>
-      <c r="B38" s="113"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E38" s="11">
         <v>4000</v>
@@ -3329,10 +3329,10 @@
       <c r="A39" s="74">
         <v>38</v>
       </c>
-      <c r="B39" s="113"/>
-      <c r="C39" s="110"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E39" s="11">
         <v>4000</v>
@@ -3347,10 +3347,10 @@
       <c r="A40" s="74">
         <v>39</v>
       </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="110"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40" s="11">
         <v>450</v>
@@ -3365,10 +3365,10 @@
       <c r="A41" s="74">
         <v>40</v>
       </c>
-      <c r="B41" s="113"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" s="11">
         <v>400</v>
@@ -3383,10 +3383,10 @@
       <c r="A42" s="74">
         <v>41</v>
       </c>
-      <c r="B42" s="113"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" s="11">
         <v>1000</v>
@@ -3402,12 +3402,12 @@
       <c r="A43" s="74">
         <v>42</v>
       </c>
-      <c r="B43" s="113"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E43" s="11">
         <v>3620</v>
@@ -3422,10 +3422,10 @@
       <c r="A44" s="74">
         <v>43</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E44" s="11">
         <v>2000</v>
@@ -3440,10 +3440,10 @@
       <c r="A45" s="74">
         <v>44</v>
       </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" s="11">
         <v>1146</v>
@@ -3458,10 +3458,10 @@
       <c r="A46" s="74">
         <v>45</v>
       </c>
-      <c r="B46" s="113"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="11">
         <v>500</v>
@@ -3476,18 +3476,18 @@
       <c r="A47" s="74">
         <v>46</v>
       </c>
-      <c r="B47" s="113"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E47" s="11">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
@@ -3498,10 +3498,10 @@
       <c r="A48" s="74">
         <v>47</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E48" s="11">
         <v>1000</v>
@@ -3516,18 +3516,18 @@
       <c r="A49" s="74">
         <v>48</v>
       </c>
-      <c r="B49" s="113"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="57" t="s">
         <v>224</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>225</v>
       </c>
       <c r="E49" s="58">
         <v>3870</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
@@ -3537,14 +3537,14 @@
       <c r="A50" s="74">
         <v>49</v>
       </c>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="D50" s="57" t="s">
         <v>228</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>229</v>
       </c>
       <c r="E50" s="58">
         <v>100000</v>
@@ -3559,12 +3559,12 @@
       <c r="A51" s="74">
         <v>50</v>
       </c>
-      <c r="B51" s="115"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="57" t="s">
         <v>230</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>231</v>
       </c>
       <c r="E51" s="58">
         <v>80237</v>
@@ -3579,18 +3579,18 @@
       <c r="A52" s="74">
         <v>51</v>
       </c>
-      <c r="B52" s="115"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="57" t="s">
         <v>232</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>233</v>
       </c>
       <c r="E52" s="58">
         <v>3000</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="63"/>
@@ -3599,12 +3599,12 @@
       <c r="A53" s="74">
         <v>52</v>
       </c>
-      <c r="B53" s="115"/>
+      <c r="B53" s="114"/>
       <c r="C53" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="57" t="s">
         <v>235</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>236</v>
       </c>
       <c r="E53" s="58">
         <v>1500</v>
@@ -3619,12 +3619,12 @@
       <c r="A54" s="74">
         <v>53</v>
       </c>
-      <c r="B54" s="115"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="66" t="s">
         <v>237</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>238</v>
       </c>
       <c r="E54" s="67">
         <v>500</v>
@@ -3682,13 +3682,13 @@
     <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -3701,8 +3701,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
-        <v>245</v>
+      <c r="B2" s="115" t="s">
+        <v>244</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>78</v>
@@ -3722,8 +3722,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="6" t="s">
         <v>79</v>
       </c>
@@ -3739,8 +3739,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="116" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="125" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3758,8 +3758,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="116" t="s">
+      <c r="B6" s="115"/>
+      <c r="C6" s="125" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3792,8 +3792,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="117"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="6" t="s">
         <v>85</v>
       </c>
@@ -3809,8 +3809,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="6" t="s">
         <v>89</v>
       </c>
@@ -3825,8 +3825,8 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="6" t="s">
         <v>110</v>
       </c>
@@ -3841,8 +3841,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="125" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3893,8 +3893,8 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="6" t="s">
         <v>106</v>
       </c>
@@ -3909,8 +3909,8 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
@@ -3925,8 +3925,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="126"/>
       <c r="D15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3942,8 +3942,8 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="6" t="s">
         <v>103</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="6" t="s">
         <v>116</v>
       </c>
@@ -3973,8 +3973,8 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="117"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="6" t="s">
         <v>119</v>
       </c>
@@ -3989,8 +3989,8 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="117"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4003,8 +4003,8 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="117"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="126"/>
       <c r="D20" s="6" t="s">
         <v>122</v>
       </c>
@@ -4017,8 +4017,8 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="117"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
@@ -4034,8 +4034,8 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="127"/>
       <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="110"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="109" t="s">
         <v>81</v>
       </c>
@@ -4066,8 +4066,8 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="110"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="109" t="s">
         <v>70</v>
       </c>
@@ -4101,8 +4101,8 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="6" t="s">
         <v>76</v>
       </c>
@@ -4117,8 +4117,8 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="6" t="s">
         <v>73</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="6" t="s">
         <v>75</v>
       </c>
@@ -4149,8 +4149,8 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="6" t="s">
         <v>72</v>
       </c>
@@ -4165,8 +4165,8 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="6" t="s">
         <v>71</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="109" t="s">
         <v>86</v>
       </c>
@@ -4200,8 +4200,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="6" t="s">
         <v>123</v>
       </c>
@@ -4217,8 +4217,8 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="6" t="s">
         <v>118</v>
       </c>
@@ -4233,8 +4233,8 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="6" t="s">
         <v>108</v>
       </c>
@@ -4248,8 +4248,8 @@
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="6" t="s">
         <v>117</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="6" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4280,8 @@
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="6" t="s">
         <v>96</v>
       </c>
@@ -4296,8 +4296,8 @@
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="6" t="s">
         <v>125</v>
       </c>
@@ -4312,8 +4312,8 @@
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="6" t="s">
         <v>124</v>
       </c>
@@ -4328,8 +4328,8 @@
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="6" t="s">
         <v>120</v>
       </c>
@@ -4344,8 +4344,8 @@
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="6" t="s">
         <v>107</v>
       </c>
@@ -4360,8 +4360,8 @@
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="6" t="s">
         <v>93</v>
       </c>
@@ -4376,8 +4376,8 @@
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="6" t="s">
         <v>105</v>
       </c>
@@ -4393,8 +4393,8 @@
       <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="6" t="s">
         <v>112</v>
       </c>
@@ -4409,8 +4409,8 @@
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="6" t="s">
         <v>95</v>
       </c>
@@ -4425,8 +4425,8 @@
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="6" t="s">
         <v>126</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="109" t="s">
         <v>91</v>
       </c>
@@ -4459,8 +4459,8 @@
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="6" t="s">
         <v>94</v>
       </c>
@@ -4475,8 +4475,8 @@
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="110"/>
-      <c r="C49" s="111"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="6" t="s">
         <v>111</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="110"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="109" t="s">
         <v>68</v>
       </c>
@@ -4509,8 +4509,8 @@
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="6" t="s">
         <v>77</v>
       </c>
@@ -4525,10 +4525,10 @@
       <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="C52" s="119" t="s">
+      <c r="B52" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="122" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -4547,8 +4547,8 @@
       <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="123"/>
-      <c r="C53" s="120"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="21" t="s">
         <v>152</v>
       </c>
@@ -4563,8 +4563,8 @@
       <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="123"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="21" t="s">
         <v>145</v>
       </c>
@@ -4579,8 +4579,8 @@
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="123"/>
-      <c r="C55" s="120"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="21" t="s">
         <v>151</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="123"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
@@ -4611,8 +4611,8 @@
       <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="120"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="21" t="s">
         <v>132</v>
       </c>
@@ -4627,8 +4627,8 @@
       <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="123"/>
-      <c r="C58" s="120"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
@@ -4643,8 +4643,8 @@
       <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="123"/>
-      <c r="C59" s="120"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="21" t="s">
         <v>153</v>
       </c>
@@ -4659,8 +4659,8 @@
       <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="120"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="21" t="s">
         <v>165</v>
       </c>
@@ -4675,8 +4675,8 @@
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="123"/>
-      <c r="C61" s="121"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="21" t="s">
         <v>146</v>
       </c>
@@ -4691,8 +4691,8 @@
       <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="123"/>
-      <c r="C62" s="122" t="s">
+      <c r="B62" s="120"/>
+      <c r="C62" s="119" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="21" t="s">
@@ -4709,8 +4709,8 @@
       <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="123"/>
-      <c r="C63" s="123"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
       <c r="D63" s="21" t="s">
         <v>159</v>
       </c>
@@ -4725,8 +4725,8 @@
       <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="123"/>
-      <c r="C64" s="123"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="120"/>
       <c r="D64" s="21" t="s">
         <v>144</v>
       </c>
@@ -4741,8 +4741,8 @@
       <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
       <c r="D65" s="21" t="s">
         <v>134</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
       <c r="D66" s="21" t="s">
         <v>143</v>
       </c>
@@ -4773,8 +4773,8 @@
       <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="123"/>
-      <c r="C67" s="123"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
       <c r="D67" s="21" t="s">
         <v>161</v>
       </c>
@@ -4789,8 +4789,8 @@
       <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="123"/>
-      <c r="C68" s="123"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
       <c r="D68" s="21" t="s">
         <v>162</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="123"/>
-      <c r="C69" s="123"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
       <c r="D69" s="21" t="s">
         <v>139</v>
       </c>
@@ -4821,8 +4821,8 @@
       <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="123"/>
-      <c r="C70" s="123"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="120"/>
       <c r="D70" s="21" t="s">
         <v>136</v>
       </c>
@@ -4837,8 +4837,8 @@
       <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
@@ -4853,8 +4853,8 @@
       <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="21" t="s">
         <v>137</v>
       </c>
@@ -4869,8 +4869,8 @@
       <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="21" t="s">
         <v>164</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="123"/>
-      <c r="C74" s="124"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="121"/>
       <c r="D74" s="21" t="s">
         <v>160</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="123"/>
-      <c r="C75" s="119" t="s">
+      <c r="B75" s="120"/>
+      <c r="C75" s="122" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -4919,8 +4919,8 @@
       <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="123"/>
-      <c r="C76" s="120"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="21" t="s">
         <v>157</v>
       </c>
@@ -4935,8 +4935,8 @@
       <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="121"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="21" t="s">
         <v>156</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="70"/>
-      <c r="C80" s="111"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="6" t="s">
         <v>52</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="70"/>
-      <c r="C82" s="110"/>
+      <c r="C82" s="115"/>
       <c r="D82" s="6" t="s">
         <v>54</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="70"/>
-      <c r="C83" s="110"/>
+      <c r="C83" s="115"/>
       <c r="D83" s="6" t="s">
         <v>57</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="70"/>
-      <c r="C84" s="110"/>
+      <c r="C84" s="115"/>
       <c r="D84" s="6" t="s">
         <v>60</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="70"/>
-      <c r="C85" s="110"/>
+      <c r="C85" s="115"/>
       <c r="D85" s="6" t="s">
         <v>59</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="70"/>
-      <c r="C86" s="110"/>
+      <c r="C86" s="115"/>
       <c r="D86" s="9" t="s">
         <v>55</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="70"/>
-      <c r="C87" s="110"/>
+      <c r="C87" s="115"/>
       <c r="D87" s="9" t="s">
         <v>56</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="70"/>
-      <c r="C88" s="111"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="6" t="s">
         <v>61</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="70"/>
-      <c r="C90" s="111"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="76" t="s">
         <v>49</v>
       </c>
@@ -5232,9 +5232,9 @@
       <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="122" t="s">
-        <v>241</v>
+      <c r="B93" s="116"/>
+      <c r="C93" s="119" t="s">
+        <v>240</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>148</v>
@@ -5250,8 +5250,8 @@
       <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="126"/>
-      <c r="C94" s="123"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="120"/>
       <c r="D94" s="21" t="s">
         <v>149</v>
       </c>
@@ -5266,8 +5266,8 @@
       <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="126"/>
-      <c r="C95" s="123"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="21" t="s">
         <v>128</v>
       </c>
@@ -5280,8 +5280,8 @@
       <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="127"/>
-      <c r="C96" s="124"/>
+      <c r="B96" s="118"/>
+      <c r="C96" s="121"/>
       <c r="D96" s="21" t="s">
         <v>147</v>
       </c>
@@ -5294,6 +5294,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C30"/>
     <mergeCell ref="B2:B51"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C50:C51"/>
@@ -5310,9 +5313,6 @@
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5343,13 +5343,13 @@
     <row r="1" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -5365,13 +5365,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" s="16">
         <v>950000</v>
@@ -5386,10 +5386,10 @@
       <c r="A3" s="95">
         <v>2</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="16">
         <v>50062</v>
@@ -5404,10 +5404,10 @@
       <c r="A4" s="95">
         <v>3</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="16">
         <v>28379</v>
@@ -5422,16 +5422,16 @@
       <c r="A5" s="95">
         <v>4</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="99">
         <v>25000</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -5440,10 +5440,10 @@
       <c r="A6" s="95">
         <v>5</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="16">
         <v>22875</v>
@@ -5458,10 +5458,10 @@
       <c r="A7" s="95">
         <v>6</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" s="16">
         <v>4493</v>
@@ -5476,12 +5476,12 @@
       <c r="A8" s="95">
         <v>7</v>
       </c>
-      <c r="B8" s="132"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="128" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>253</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>254</v>
       </c>
       <c r="E8" s="16">
         <v>265000</v>
@@ -5496,10 +5496,10 @@
       <c r="A9" s="95">
         <v>8</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="16">
         <v>349</v>
@@ -5514,12 +5514,12 @@
       <c r="A10" s="95">
         <v>9</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="128" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>257</v>
       </c>
       <c r="E10" s="16">
         <v>158201</v>
@@ -5534,16 +5534,16 @@
       <c r="A11" s="95">
         <v>10</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E11" s="16">
         <v>29559</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -5552,16 +5552,16 @@
       <c r="A12" s="95">
         <v>11</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E12" s="16">
         <v>5800</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="85"/>
       <c r="H12" s="80"/>
@@ -5570,16 +5570,16 @@
       <c r="A13" s="95">
         <v>12</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" s="16">
         <v>3200</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
@@ -5588,10 +5588,10 @@
       <c r="A14" s="95">
         <v>13</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E14" s="16">
         <v>570</v>
@@ -5606,12 +5606,12 @@
       <c r="A15" s="95">
         <v>14</v>
       </c>
-      <c r="B15" s="132"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>263</v>
       </c>
       <c r="E15" s="16">
         <v>42000</v>
@@ -5626,10 +5626,10 @@
       <c r="A16" s="95">
         <v>15</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E16" s="16">
         <v>49000</v>
@@ -5644,10 +5644,10 @@
       <c r="A17" s="95">
         <v>16</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E17" s="16">
         <v>4000</v>
@@ -5662,10 +5662,10 @@
       <c r="A18" s="95">
         <v>17</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E18" s="16">
         <v>2673</v>
@@ -5680,10 +5680,10 @@
       <c r="A19" s="95">
         <v>18</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="16">
         <v>4000</v>
@@ -5698,18 +5698,18 @@
       <c r="A20" s="95">
         <v>19</v>
       </c>
-      <c r="B20" s="132"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>268</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>269</v>
       </c>
       <c r="E20" s="16">
         <v>50649</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="80"/>
@@ -5718,10 +5718,10 @@
       <c r="A21" s="95">
         <v>20</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E21" s="16">
         <v>10246</v>
@@ -5736,10 +5736,10 @@
       <c r="A22" s="95">
         <v>21</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="16">
         <v>9120</v>
@@ -5754,10 +5754,10 @@
       <c r="A23" s="95">
         <v>22</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="16">
         <v>3006</v>
@@ -5772,10 +5772,10 @@
       <c r="A24" s="95">
         <v>23</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E24" s="39">
         <v>3482</v>
@@ -5790,10 +5790,10 @@
       <c r="A25" s="95">
         <v>24</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" s="16">
         <v>2121</v>
@@ -5808,12 +5808,12 @@
       <c r="A26" s="95">
         <v>25</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>275</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>276</v>
       </c>
       <c r="E26" s="16">
         <v>15999</v>
@@ -5828,10 +5828,10 @@
       <c r="A27" s="95">
         <v>26</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="16">
         <v>7171</v>
@@ -5846,12 +5846,12 @@
       <c r="A28" s="95">
         <v>27</v>
       </c>
-      <c r="B28" s="132"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>278</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>279</v>
       </c>
       <c r="E28" s="16">
         <v>21639</v>
@@ -5866,12 +5866,12 @@
       <c r="A29" s="95">
         <v>28</v>
       </c>
-      <c r="B29" s="132"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="16">
         <v>30000</v>
@@ -5886,10 +5886,10 @@
       <c r="A30" s="95">
         <v>29</v>
       </c>
-      <c r="B30" s="132"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="97"/>
       <c r="D30" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="16">
         <v>6134</v>
@@ -5904,10 +5904,10 @@
       <c r="A31" s="95">
         <v>30</v>
       </c>
-      <c r="B31" s="132"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="97"/>
       <c r="D31" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E31" s="16">
         <v>2674</v>
@@ -5922,10 +5922,10 @@
       <c r="A32" s="95">
         <v>31</v>
       </c>
-      <c r="B32" s="132"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="97"/>
       <c r="D32" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E32" s="16">
         <v>6204</v>
@@ -5940,10 +5940,10 @@
       <c r="A33" s="95">
         <v>32</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="97"/>
       <c r="D33" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="16">
         <v>1923</v>
@@ -5958,10 +5958,10 @@
       <c r="A34" s="95">
         <v>33</v>
       </c>
-      <c r="B34" s="132"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="97"/>
       <c r="D34" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E34" s="16">
         <v>565</v>
@@ -5976,10 +5976,10 @@
       <c r="A35" s="95">
         <v>34</v>
       </c>
-      <c r="B35" s="132"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="103"/>
       <c r="D35" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E35" s="16">
         <v>4579</v>
@@ -5994,12 +5994,12 @@
       <c r="A36" s="95">
         <v>35</v>
       </c>
-      <c r="B36" s="132"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>289</v>
       </c>
       <c r="E36" s="16">
         <v>7744</v>
@@ -6014,10 +6014,10 @@
       <c r="A37" s="95">
         <v>36</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E37" s="16">
         <v>1500</v>
@@ -6032,10 +6032,10 @@
       <c r="A38" s="95">
         <v>37</v>
       </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E38" s="16">
         <v>800</v>
@@ -6050,10 +6050,10 @@
       <c r="A39" s="95">
         <v>38</v>
       </c>
-      <c r="B39" s="132"/>
-      <c r="C39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E39" s="16">
         <v>500</v>
@@ -6068,12 +6068,12 @@
       <c r="A40" s="95">
         <v>39</v>
       </c>
-      <c r="B40" s="132"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="128" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>293</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>294</v>
       </c>
       <c r="E40" s="16">
         <v>5722</v>
@@ -6088,10 +6088,10 @@
       <c r="A41" s="95">
         <v>40</v>
       </c>
-      <c r="B41" s="132"/>
-      <c r="C41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E41" s="16">
         <v>2348</v>
@@ -6106,12 +6106,12 @@
       <c r="A42" s="95">
         <v>41</v>
       </c>
-      <c r="B42" s="132"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>297</v>
       </c>
       <c r="E42" s="16">
         <v>1231</v>
@@ -6127,10 +6127,10 @@
       <c r="A43" s="95">
         <v>42</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E43" s="104">
         <v>9575</v>
@@ -6146,17 +6146,17 @@
         <v>39</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C44" s="134"/>
       <c r="D44" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E44" s="105">
         <v>162000</v>
       </c>
       <c r="F44" s="100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G44" s="85"/>
       <c r="H44" s="80"/>
@@ -6168,7 +6168,7 @@
       <c r="B45" s="135"/>
       <c r="C45" s="136"/>
       <c r="D45" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E45" s="105">
         <v>18272</v>
@@ -6186,7 +6186,7 @@
       <c r="B46" s="135"/>
       <c r="C46" s="136"/>
       <c r="D46" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E46" s="105">
         <v>19000</v>
@@ -6204,7 +6204,7 @@
       <c r="B47" s="135"/>
       <c r="C47" s="136"/>
       <c r="D47" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E47" s="105">
         <v>6000</v>
@@ -6222,7 +6222,7 @@
       <c r="B48" s="135"/>
       <c r="C48" s="136"/>
       <c r="D48" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E48" s="105">
         <v>3500</v>
@@ -6240,7 +6240,7 @@
       <c r="B49" s="135"/>
       <c r="C49" s="136"/>
       <c r="D49" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E49" s="105">
         <v>360</v>
@@ -6256,7 +6256,7 @@
       <c r="B50" s="137"/>
       <c r="C50" s="138"/>
       <c r="D50" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E50" s="105">
         <v>1700</v>
@@ -6272,13 +6272,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C51" s="128" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>306</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>307</v>
       </c>
       <c r="E51" s="105">
         <v>75773</v>
@@ -6293,10 +6293,10 @@
       <c r="A52" s="95">
         <v>46</v>
       </c>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E52" s="16">
         <v>6641</v>
@@ -6311,10 +6311,10 @@
       <c r="A53" s="95">
         <v>47</v>
       </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E53" s="105">
         <v>2586</v>
@@ -6329,10 +6329,10 @@
       <c r="A54" s="95">
         <v>48</v>
       </c>
-      <c r="B54" s="132"/>
-      <c r="C54" s="129"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="130"/>
       <c r="D54" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E54" s="16">
         <v>894</v>
@@ -6347,12 +6347,12 @@
       <c r="A55" s="95">
         <v>49</v>
       </c>
-      <c r="B55" s="129"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>311</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>312</v>
       </c>
       <c r="E55" s="16">
         <v>500</v>
@@ -6368,11 +6368,11 @@
         <v>50</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="134"/>
       <c r="D56" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E56" s="16">
         <v>25136</v>
@@ -6390,13 +6390,13 @@
       <c r="B57" s="135"/>
       <c r="C57" s="136"/>
       <c r="D57" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E57" s="16">
         <v>8715</v>
       </c>
       <c r="F57" s="101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="80"/>
@@ -6406,7 +6406,7 @@
       <c r="B58" s="137"/>
       <c r="C58" s="138"/>
       <c r="D58" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E58" s="105">
         <v>704</v>
@@ -6422,19 +6422,19 @@
         <v>52</v>
       </c>
       <c r="B59" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="128" t="s">
         <v>317</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="D59" s="37" t="s">
         <v>318</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>319</v>
       </c>
       <c r="E59" s="16">
         <v>5000</v>
       </c>
       <c r="F59" s="101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="80"/>
@@ -6443,10 +6443,10 @@
       <c r="A60" s="95">
         <v>53</v>
       </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E60" s="16">
         <v>4000</v>
@@ -6461,10 +6461,10 @@
       <c r="A61" s="95">
         <v>54</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E61" s="16">
         <v>2500</v>
@@ -6479,10 +6479,10 @@
       <c r="A62" s="95">
         <v>55</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E62" s="16">
         <v>3150</v>
@@ -6497,10 +6497,10 @@
       <c r="A63" s="95">
         <v>56</v>
       </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="129"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E63" s="16">
         <v>1000</v>
@@ -6515,12 +6515,12 @@
       <c r="A64" s="95">
         <v>57</v>
       </c>
-      <c r="B64" s="132"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>325</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>326</v>
       </c>
       <c r="E64" s="16">
         <v>8000</v>
@@ -6535,16 +6535,16 @@
       <c r="A65" s="95">
         <v>58</v>
       </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="129"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="130"/>
       <c r="D65" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E65" s="16">
         <v>1703</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G65" s="85"/>
       <c r="H65" s="80"/>
@@ -6553,28 +6553,28 @@
       <c r="A66" s="95">
         <v>59</v>
       </c>
-      <c r="B66" s="132"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="128" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>328</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>329</v>
       </c>
       <c r="E66" s="39">
         <v>250</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="80"/>
     </row>
     <row r="67" spans="1:10" ht="56.25" customHeight="1">
       <c r="A67" s="95"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="129"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E67" s="105">
         <v>2000</v>
@@ -6597,18 +6597,18 @@
       <c r="A68" s="95">
         <v>64</v>
       </c>
-      <c r="B68" s="130" t="s">
+      <c r="B68" s="131" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="132"/>
+      <c r="D68" s="37" t="s">
         <v>335</v>
-      </c>
-      <c r="C68" s="131"/>
-      <c r="D68" s="37" t="s">
-        <v>336</v>
       </c>
       <c r="E68" s="104">
         <v>7796</v>
       </c>
       <c r="F68" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -6618,19 +6618,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="128" t="s">
         <v>331</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="D69" s="37" t="s">
         <v>332</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>333</v>
       </c>
       <c r="E69" s="16">
         <v>4000</v>
       </c>
       <c r="F69" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G69" s="85"/>
       <c r="H69" s="80"/>
@@ -6639,10 +6639,10 @@
       <c r="A70" s="95">
         <v>62</v>
       </c>
-      <c r="B70" s="129"/>
-      <c r="C70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
       <c r="D70" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E70" s="16">
         <v>2500</v>
@@ -8162,11 +8162,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B68:C68"/>
@@ -8183,6 +8178,11 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8221,7 +8221,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -8234,10 +8234,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="148"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
@@ -8252,8 +8252,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="149"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
@@ -8268,8 +8268,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
@@ -8284,10 +8284,10 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="45" t="s">
@@ -8304,8 +8304,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="143"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="45" t="s">
         <v>16</v>
       </c>
@@ -8320,8 +8320,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="144" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="150" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -8338,8 +8338,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="145"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="109" t="s">
         <v>9</v>
       </c>
@@ -8372,8 +8372,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="110"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="14" t="s">
         <v>13</v>
       </c>
@@ -8388,8 +8388,8 @@
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="14" t="s">
         <v>11</v>
       </c>
@@ -8404,8 +8404,8 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="14" t="s">
         <v>40</v>
       </c>
@@ -8420,8 +8420,8 @@
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="109" t="s">
         <v>31</v>
       </c>
@@ -8454,8 +8454,8 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
@@ -8470,8 +8470,8 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="110"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="14" t="s">
         <v>30</v>
       </c>
@@ -8486,8 +8486,8 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="111"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="14" t="s">
         <v>32</v>
       </c>
@@ -8502,7 +8502,7 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="111" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="109" t="s">
@@ -8522,8 +8522,8 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="110"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="14" t="s">
         <v>38</v>
       </c>
@@ -8538,8 +8538,8 @@
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="111"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="113"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="109"/>
       <c r="D21" s="14" t="s">
         <v>6</v>
@@ -8570,8 +8570,8 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="111"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="14" t="s">
         <v>5</v>
       </c>
@@ -8586,7 +8586,7 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="113"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="109" t="s">
         <v>35</v>
       </c>
@@ -8604,8 +8604,8 @@
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="110"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="14" t="s">
         <v>23</v>
       </c>
@@ -8620,8 +8620,8 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="14" t="s">
         <v>25</v>
       </c>
@@ -8636,8 +8636,8 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="14" t="s">
         <v>24</v>
       </c>
@@ -8652,8 +8652,8 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="14" t="s">
         <v>27</v>
       </c>
@@ -8668,8 +8668,8 @@
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
@@ -8684,8 +8684,8 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="111"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="14" t="s">
         <v>29</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="141"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="17"/>
       <c r="D30" s="14" t="s">
         <v>28</v>
@@ -8716,8 +8716,8 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="146" t="s">
+      <c r="B31" s="116"/>
+      <c r="C31" s="152" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -8734,8 +8734,8 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="147"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="153"/>
       <c r="D32" s="14" t="s">
         <v>20</v>
       </c>
@@ -8755,8 +8755,8 @@
     </row>
     <row r="35" spans="1:9">
       <c r="E35" s="10"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="140"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>

--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A12362-B448-5248-8DA7-C3DA6036328F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35DBF7-CD17-B04C-B8D2-840958B2F86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,9 +584,6 @@
     <t>בריאות הנפש</t>
   </si>
   <si>
-    <t>שיקום נכי נפש בקהילה- דיור - הוסטלים</t>
-  </si>
-  <si>
     <t>תחליפי אשפוז -טיפול בבעלי תחלואה כפולה</t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t xml:space="preserve">מכשירי שיקום וניידות – אספקה, התאמה, תיקון וחלוקת מכשירי שיקום וניידות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">שיקום נכי נפש בקהילה- שירותי שיקום בדיור (הוסטלים) </t>
   </si>
 </sst>
 </file>
@@ -1794,6 +1794,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,21 +1827,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,6 +1840,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15"/>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>171</v>
@@ -2713,7 +2713,7 @@
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:16" ht="22">
+    <row r="6" spans="1:16" ht="21">
       <c r="A6" s="74">
         <v>5</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>176</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="E6" s="11">
         <v>235621</v>
@@ -2740,7 +2740,7 @@
       <c r="B7" s="112"/>
       <c r="C7" s="115"/>
       <c r="D7" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="11">
         <v>235621</v>
@@ -2758,7 +2758,7 @@
       <c r="B8" s="112"/>
       <c r="C8" s="115"/>
       <c r="D8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="11">
         <v>170485</v>
@@ -2776,7 +2776,7 @@
       <c r="B9" s="112"/>
       <c r="C9" s="115"/>
       <c r="D9" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="11">
         <v>120000</v>
@@ -2794,7 +2794,7 @@
       <c r="B10" s="112"/>
       <c r="C10" s="115"/>
       <c r="D10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="11">
         <v>83000</v>
@@ -2812,7 +2812,7 @@
       <c r="B11" s="112"/>
       <c r="C11" s="115"/>
       <c r="D11" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="11">
         <v>78000</v>
@@ -2830,7 +2830,7 @@
       <c r="B12" s="112"/>
       <c r="C12" s="115"/>
       <c r="D12" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="11">
         <v>34365</v>
@@ -2850,7 +2850,7 @@
       <c r="B13" s="112"/>
       <c r="C13" s="115"/>
       <c r="D13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" s="11">
         <v>33000</v>
@@ -2868,7 +2868,7 @@
       <c r="B14" s="112"/>
       <c r="C14" s="115"/>
       <c r="D14" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="11">
         <v>30000</v>
@@ -2886,7 +2886,7 @@
       <c r="B15" s="112"/>
       <c r="C15" s="115"/>
       <c r="D15" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="11">
         <v>20000</v>
@@ -2906,7 +2906,7 @@
       <c r="B16" s="112"/>
       <c r="C16" s="115"/>
       <c r="D16" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="11">
         <v>19500</v>
@@ -2924,7 +2924,7 @@
       <c r="B17" s="112"/>
       <c r="C17" s="115"/>
       <c r="D17" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="11">
         <v>18000</v>
@@ -2944,7 +2944,7 @@
       <c r="B18" s="112"/>
       <c r="C18" s="115"/>
       <c r="D18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="11">
         <v>13000</v>
@@ -2962,7 +2962,7 @@
       <c r="B19" s="112"/>
       <c r="C19" s="115"/>
       <c r="D19" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="11">
         <v>13000</v>
@@ -2982,7 +2982,7 @@
       <c r="B20" s="112"/>
       <c r="C20" s="115"/>
       <c r="D20" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="11">
         <v>12000</v>
@@ -3000,7 +3000,7 @@
       <c r="B21" s="112"/>
       <c r="C21" s="115"/>
       <c r="D21" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="11">
         <v>8700</v>
@@ -3018,7 +3018,7 @@
       <c r="B22" s="112"/>
       <c r="C22" s="115"/>
       <c r="D22" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="6"/>
@@ -3032,7 +3032,7 @@
       <c r="B23" s="112"/>
       <c r="C23" s="115"/>
       <c r="D23" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="11">
         <v>7375</v>
@@ -3050,7 +3050,7 @@
       <c r="B24" s="112"/>
       <c r="C24" s="115"/>
       <c r="D24" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="11">
         <v>5500</v>
@@ -3068,7 +3068,7 @@
       <c r="B25" s="112"/>
       <c r="C25" s="115"/>
       <c r="D25" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="11">
         <v>3500</v>
@@ -3086,7 +3086,7 @@
       <c r="B26" s="112"/>
       <c r="C26" s="115"/>
       <c r="D26" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="11">
         <v>1500</v>
@@ -3104,7 +3104,7 @@
       <c r="B27" s="112"/>
       <c r="C27" s="115"/>
       <c r="D27" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="11">
         <v>1000</v>
@@ -3124,7 +3124,7 @@
       <c r="B28" s="112"/>
       <c r="C28" s="115"/>
       <c r="D28" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="11">
         <v>730</v>
@@ -3142,7 +3142,7 @@
       <c r="B29" s="112"/>
       <c r="C29" s="115"/>
       <c r="D29" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="11">
         <v>680</v>
@@ -3160,13 +3160,13 @@
       <c r="B30" s="112"/>
       <c r="C30" s="115"/>
       <c r="D30" s="54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" s="11">
         <v>650</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
@@ -3178,7 +3178,7 @@
       <c r="B31" s="112"/>
       <c r="C31" s="110"/>
       <c r="D31" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="11">
         <v>407</v>
@@ -3189,16 +3189,16 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:10" ht="21">
+    <row r="32" spans="1:10" ht="44">
       <c r="A32" s="74">
         <v>31</v>
       </c>
       <c r="B32" s="112"/>
       <c r="C32" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E32" s="11">
         <v>150000</v>
@@ -3218,7 +3218,7 @@
       <c r="B33" s="112"/>
       <c r="C33" s="115"/>
       <c r="D33" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="11">
         <v>50000</v>
@@ -3237,7 +3237,7 @@
       <c r="B34" s="112"/>
       <c r="C34" s="115"/>
       <c r="D34" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34" s="11">
         <v>18146</v>
@@ -3256,7 +3256,7 @@
       <c r="B35" s="112"/>
       <c r="C35" s="115"/>
       <c r="D35" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="11">
         <v>2260</v>
@@ -3276,7 +3276,7 @@
       <c r="B36" s="112"/>
       <c r="C36" s="110"/>
       <c r="D36" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="11">
         <v>350</v>
@@ -3293,10 +3293,10 @@
       </c>
       <c r="B37" s="112"/>
       <c r="C37" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E37" s="11">
         <v>9500</v>
@@ -3314,7 +3314,7 @@
       <c r="B38" s="112"/>
       <c r="C38" s="115"/>
       <c r="D38" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="11">
         <v>4000</v>
@@ -3332,7 +3332,7 @@
       <c r="B39" s="112"/>
       <c r="C39" s="115"/>
       <c r="D39" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="11">
         <v>4000</v>
@@ -3350,7 +3350,7 @@
       <c r="B40" s="112"/>
       <c r="C40" s="115"/>
       <c r="D40" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="11">
         <v>450</v>
@@ -3368,7 +3368,7 @@
       <c r="B41" s="112"/>
       <c r="C41" s="110"/>
       <c r="D41" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="11">
         <v>400</v>
@@ -3386,7 +3386,7 @@
       <c r="B42" s="112"/>
       <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="11">
         <v>1000</v>
@@ -3404,10 +3404,10 @@
       </c>
       <c r="B43" s="112"/>
       <c r="C43" s="109" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E43" s="11">
         <v>3620</v>
@@ -3425,7 +3425,7 @@
       <c r="B44" s="112"/>
       <c r="C44" s="115"/>
       <c r="D44" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E44" s="11">
         <v>2000</v>
@@ -3443,7 +3443,7 @@
       <c r="B45" s="112"/>
       <c r="C45" s="115"/>
       <c r="D45" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E45" s="11">
         <v>1146</v>
@@ -3461,13 +3461,13 @@
       <c r="B46" s="112"/>
       <c r="C46" s="110"/>
       <c r="D46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E46" s="11">
         <v>500</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
@@ -3478,16 +3478,16 @@
       </c>
       <c r="B47" s="112"/>
       <c r="C47" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E47" s="11">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
@@ -3501,7 +3501,7 @@
       <c r="B48" s="112"/>
       <c r="C48" s="110"/>
       <c r="D48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="11">
         <v>1000</v>
@@ -3518,16 +3518,16 @@
       </c>
       <c r="B49" s="112"/>
       <c r="C49" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="57" t="s">
         <v>223</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>224</v>
       </c>
       <c r="E49" s="58">
         <v>3870</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
@@ -3538,13 +3538,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="D50" s="57" t="s">
         <v>227</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>228</v>
       </c>
       <c r="E50" s="58">
         <v>100000</v>
@@ -3561,10 +3561,10 @@
       </c>
       <c r="B51" s="114"/>
       <c r="C51" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="57" t="s">
         <v>229</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>230</v>
       </c>
       <c r="E51" s="58">
         <v>80237</v>
@@ -3581,16 +3581,16 @@
       </c>
       <c r="B52" s="114"/>
       <c r="C52" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="57" t="s">
         <v>231</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>232</v>
       </c>
       <c r="E52" s="58">
         <v>3000</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="63"/>
@@ -3601,10 +3601,10 @@
       </c>
       <c r="B53" s="114"/>
       <c r="C53" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="57" t="s">
         <v>234</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>235</v>
       </c>
       <c r="E53" s="58">
         <v>1500</v>
@@ -3621,10 +3621,10 @@
       </c>
       <c r="B54" s="114"/>
       <c r="C54" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="66" t="s">
         <v>236</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>237</v>
       </c>
       <c r="E54" s="67">
         <v>500</v>
@@ -3682,13 +3682,13 @@
     <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>78</v>
@@ -3740,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="115"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="116" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3759,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="115"/>
-      <c r="C5" s="127"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="115"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="116" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3793,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="115"/>
-      <c r="C7" s="126"/>
+      <c r="C7" s="127"/>
       <c r="D7" s="6" t="s">
         <v>85</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="115"/>
-      <c r="C8" s="126"/>
+      <c r="C8" s="127"/>
       <c r="D8" s="6" t="s">
         <v>89</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="115"/>
-      <c r="C9" s="126"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="6" t="s">
         <v>110</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="115"/>
-      <c r="C10" s="127"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="115"/>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="116" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3894,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="115"/>
-      <c r="C13" s="126"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="6" t="s">
         <v>106</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="115"/>
-      <c r="C14" s="126"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="6" t="s">
         <v>90</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="115"/>
-      <c r="C15" s="126"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="115"/>
-      <c r="C16" s="126"/>
+      <c r="C16" s="127"/>
       <c r="D16" s="6" t="s">
         <v>103</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="115"/>
-      <c r="C17" s="126"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="6" t="s">
         <v>116</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="115"/>
-      <c r="C18" s="126"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="6" t="s">
         <v>119</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="115"/>
-      <c r="C19" s="126"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="115"/>
-      <c r="C20" s="126"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="6" t="s">
         <v>122</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="115"/>
-      <c r="C21" s="126"/>
+      <c r="C21" s="127"/>
       <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="115"/>
-      <c r="C22" s="127"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
@@ -4525,10 +4525,10 @@
       <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="122" t="s">
+      <c r="B52" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="124" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -4547,8 +4547,8 @@
       <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="120"/>
-      <c r="C53" s="123"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="21" t="s">
         <v>152</v>
       </c>
@@ -4563,8 +4563,8 @@
       <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="120"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="21" t="s">
         <v>145</v>
       </c>
@@ -4579,8 +4579,8 @@
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="120"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="125"/>
       <c r="D55" s="21" t="s">
         <v>151</v>
       </c>
@@ -4595,8 +4595,8 @@
       <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="123"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
@@ -4611,8 +4611,8 @@
       <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="123"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="21" t="s">
         <v>132</v>
       </c>
@@ -4627,8 +4627,8 @@
       <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="123"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="125"/>
       <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
@@ -4643,8 +4643,8 @@
       <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="123"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="21" t="s">
         <v>153</v>
       </c>
@@ -4659,8 +4659,8 @@
       <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="123"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="21" t="s">
         <v>165</v>
       </c>
@@ -4675,8 +4675,8 @@
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="120"/>
-      <c r="C61" s="124"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="21" t="s">
         <v>146</v>
       </c>
@@ -4691,8 +4691,8 @@
       <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="120"/>
-      <c r="C62" s="119" t="s">
+      <c r="B62" s="122"/>
+      <c r="C62" s="121" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="21" t="s">
@@ -4709,8 +4709,8 @@
       <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="120"/>
-      <c r="C63" s="120"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
       <c r="D63" s="21" t="s">
         <v>159</v>
       </c>
@@ -4725,8 +4725,8 @@
       <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="120"/>
-      <c r="C64" s="120"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="21" t="s">
         <v>144</v>
       </c>
@@ -4741,8 +4741,8 @@
       <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
       <c r="D65" s="21" t="s">
         <v>134</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="120"/>
-      <c r="C66" s="120"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
       <c r="D66" s="21" t="s">
         <v>143</v>
       </c>
@@ -4773,8 +4773,8 @@
       <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="120"/>
-      <c r="C67" s="120"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
       <c r="D67" s="21" t="s">
         <v>161</v>
       </c>
@@ -4789,8 +4789,8 @@
       <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="120"/>
-      <c r="C68" s="120"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
       <c r="D68" s="21" t="s">
         <v>162</v>
       </c>
@@ -4805,8 +4805,8 @@
       <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
       <c r="D69" s="21" t="s">
         <v>139</v>
       </c>
@@ -4821,8 +4821,8 @@
       <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="120"/>
-      <c r="C70" s="120"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="21" t="s">
         <v>136</v>
       </c>
@@ -4837,8 +4837,8 @@
       <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
@@ -4853,8 +4853,8 @@
       <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="21" t="s">
         <v>137</v>
       </c>
@@ -4869,8 +4869,8 @@
       <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="120"/>
-      <c r="C73" s="120"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="21" t="s">
         <v>164</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="120"/>
-      <c r="C74" s="121"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="21" t="s">
         <v>160</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="120"/>
-      <c r="C75" s="122" t="s">
+      <c r="B75" s="122"/>
+      <c r="C75" s="124" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -4919,8 +4919,8 @@
       <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="123"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="125"/>
       <c r="D76" s="21" t="s">
         <v>157</v>
       </c>
@@ -4935,8 +4935,8 @@
       <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="120"/>
-      <c r="C77" s="124"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="126"/>
       <c r="D77" s="21" t="s">
         <v>156</v>
       </c>
@@ -5232,9 +5232,9 @@
       <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="116"/>
-      <c r="C93" s="119" t="s">
-        <v>240</v>
+      <c r="B93" s="118"/>
+      <c r="C93" s="121" t="s">
+        <v>239</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>148</v>
@@ -5250,8 +5250,8 @@
       <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="117"/>
-      <c r="C94" s="120"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="122"/>
       <c r="D94" s="21" t="s">
         <v>149</v>
       </c>
@@ -5266,8 +5266,8 @@
       <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="120"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="122"/>
       <c r="D95" s="21" t="s">
         <v>128</v>
       </c>
@@ -5280,8 +5280,8 @@
       <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="118"/>
-      <c r="C96" s="121"/>
+      <c r="B96" s="120"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="21" t="s">
         <v>147</v>
       </c>
@@ -5294,12 +5294,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B2:B51"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
     <mergeCell ref="B93:B96"/>
     <mergeCell ref="B52:B77"/>
     <mergeCell ref="C62:C74"/>
@@ -5309,6 +5303,12 @@
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="C81:C88"/>
     <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B2:B51"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="C31:C46"/>
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C2:C3"/>
@@ -5343,13 +5343,13 @@
     <row r="1" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -5365,13 +5365,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="16">
         <v>950000</v>
@@ -5386,10 +5386,10 @@
       <c r="A3" s="95">
         <v>2</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
       <c r="D3" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="16">
         <v>50062</v>
@@ -5404,10 +5404,10 @@
       <c r="A4" s="95">
         <v>3</v>
       </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="16">
         <v>28379</v>
@@ -5422,16 +5422,16 @@
       <c r="A5" s="95">
         <v>4</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="99">
         <v>25000</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
@@ -5440,10 +5440,10 @@
       <c r="A6" s="95">
         <v>5</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="16">
         <v>22875</v>
@@ -5458,10 +5458,10 @@
       <c r="A7" s="95">
         <v>6</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="130"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="16">
         <v>4493</v>
@@ -5476,12 +5476,12 @@
       <c r="A8" s="95">
         <v>7</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>252</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>253</v>
       </c>
       <c r="E8" s="16">
         <v>265000</v>
@@ -5496,10 +5496,10 @@
       <c r="A9" s="95">
         <v>8</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="16">
         <v>349</v>
@@ -5514,12 +5514,12 @@
       <c r="A10" s="95">
         <v>9</v>
       </c>
-      <c r="B10" s="129"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>255</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>256</v>
       </c>
       <c r="E10" s="16">
         <v>158201</v>
@@ -5534,16 +5534,16 @@
       <c r="A11" s="95">
         <v>10</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="16">
         <v>29559</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
@@ -5552,16 +5552,16 @@
       <c r="A12" s="95">
         <v>11</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="16">
         <v>5800</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G12" s="85"/>
       <c r="H12" s="80"/>
@@ -5570,16 +5570,16 @@
       <c r="A13" s="95">
         <v>12</v>
       </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="16">
         <v>3200</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
@@ -5588,10 +5588,10 @@
       <c r="A14" s="95">
         <v>13</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="16">
         <v>570</v>
@@ -5606,12 +5606,12 @@
       <c r="A15" s="95">
         <v>14</v>
       </c>
-      <c r="B15" s="129"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="128" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>261</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="E15" s="16">
         <v>42000</v>
@@ -5626,10 +5626,10 @@
       <c r="A16" s="95">
         <v>15</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="16">
         <v>49000</v>
@@ -5644,10 +5644,10 @@
       <c r="A17" s="95">
         <v>16</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="16">
         <v>4000</v>
@@ -5662,10 +5662,10 @@
       <c r="A18" s="95">
         <v>17</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E18" s="16">
         <v>2673</v>
@@ -5680,10 +5680,10 @@
       <c r="A19" s="95">
         <v>18</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E19" s="16">
         <v>4000</v>
@@ -5698,18 +5698,18 @@
       <c r="A20" s="95">
         <v>19</v>
       </c>
-      <c r="B20" s="129"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="128" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="E20" s="16">
         <v>50649</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="80"/>
@@ -5718,10 +5718,10 @@
       <c r="A21" s="95">
         <v>20</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="16">
         <v>10246</v>
@@ -5736,10 +5736,10 @@
       <c r="A22" s="95">
         <v>21</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="16">
         <v>9120</v>
@@ -5754,10 +5754,10 @@
       <c r="A23" s="95">
         <v>22</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="16">
         <v>3006</v>
@@ -5772,10 +5772,10 @@
       <c r="A24" s="95">
         <v>23</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E24" s="39">
         <v>3482</v>
@@ -5790,10 +5790,10 @@
       <c r="A25" s="95">
         <v>24</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E25" s="16">
         <v>2121</v>
@@ -5808,12 +5808,12 @@
       <c r="A26" s="95">
         <v>25</v>
       </c>
-      <c r="B26" s="129"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="128" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>274</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>275</v>
       </c>
       <c r="E26" s="16">
         <v>15999</v>
@@ -5828,10 +5828,10 @@
       <c r="A27" s="95">
         <v>26</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E27" s="16">
         <v>7171</v>
@@ -5846,12 +5846,12 @@
       <c r="A28" s="95">
         <v>27</v>
       </c>
-      <c r="B28" s="129"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>277</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="E28" s="16">
         <v>21639</v>
@@ -5866,12 +5866,12 @@
       <c r="A29" s="95">
         <v>28</v>
       </c>
-      <c r="B29" s="129"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E29" s="16">
         <v>30000</v>
@@ -5886,10 +5886,10 @@
       <c r="A30" s="95">
         <v>29</v>
       </c>
-      <c r="B30" s="129"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="97"/>
       <c r="D30" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="16">
         <v>6134</v>
@@ -5904,10 +5904,10 @@
       <c r="A31" s="95">
         <v>30</v>
       </c>
-      <c r="B31" s="129"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="97"/>
       <c r="D31" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="16">
         <v>2674</v>
@@ -5922,10 +5922,10 @@
       <c r="A32" s="95">
         <v>31</v>
       </c>
-      <c r="B32" s="129"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="97"/>
       <c r="D32" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E32" s="16">
         <v>6204</v>
@@ -5940,10 +5940,10 @@
       <c r="A33" s="95">
         <v>32</v>
       </c>
-      <c r="B33" s="129"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="97"/>
       <c r="D33" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="16">
         <v>1923</v>
@@ -5958,10 +5958,10 @@
       <c r="A34" s="95">
         <v>33</v>
       </c>
-      <c r="B34" s="129"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="97"/>
       <c r="D34" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E34" s="16">
         <v>565</v>
@@ -5976,10 +5976,10 @@
       <c r="A35" s="95">
         <v>34</v>
       </c>
-      <c r="B35" s="129"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="103"/>
       <c r="D35" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E35" s="16">
         <v>4579</v>
@@ -5994,12 +5994,12 @@
       <c r="A36" s="95">
         <v>35</v>
       </c>
-      <c r="B36" s="129"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="128" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="E36" s="16">
         <v>7744</v>
@@ -6014,10 +6014,10 @@
       <c r="A37" s="95">
         <v>36</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E37" s="16">
         <v>1500</v>
@@ -6032,10 +6032,10 @@
       <c r="A38" s="95">
         <v>37</v>
       </c>
-      <c r="B38" s="129"/>
-      <c r="C38" s="129"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E38" s="16">
         <v>800</v>
@@ -6050,10 +6050,10 @@
       <c r="A39" s="95">
         <v>38</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E39" s="16">
         <v>500</v>
@@ -6068,12 +6068,12 @@
       <c r="A40" s="95">
         <v>39</v>
       </c>
-      <c r="B40" s="129"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>293</v>
       </c>
       <c r="E40" s="16">
         <v>5722</v>
@@ -6088,10 +6088,10 @@
       <c r="A41" s="95">
         <v>40</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="130"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E41" s="16">
         <v>2348</v>
@@ -6106,12 +6106,12 @@
       <c r="A42" s="95">
         <v>41</v>
       </c>
-      <c r="B42" s="129"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="128" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>295</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>296</v>
       </c>
       <c r="E42" s="16">
         <v>1231</v>
@@ -6127,10 +6127,10 @@
       <c r="A43" s="95">
         <v>42</v>
       </c>
-      <c r="B43" s="129"/>
-      <c r="C43" s="130"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E43" s="104">
         <v>9575</v>
@@ -6146,17 +6146,17 @@
         <v>39</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C44" s="134"/>
       <c r="D44" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="105">
         <v>162000</v>
       </c>
       <c r="F44" s="100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G44" s="85"/>
       <c r="H44" s="80"/>
@@ -6168,7 +6168,7 @@
       <c r="B45" s="135"/>
       <c r="C45" s="136"/>
       <c r="D45" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E45" s="105">
         <v>18272</v>
@@ -6186,7 +6186,7 @@
       <c r="B46" s="135"/>
       <c r="C46" s="136"/>
       <c r="D46" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E46" s="105">
         <v>19000</v>
@@ -6204,7 +6204,7 @@
       <c r="B47" s="135"/>
       <c r="C47" s="136"/>
       <c r="D47" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E47" s="105">
         <v>6000</v>
@@ -6222,7 +6222,7 @@
       <c r="B48" s="135"/>
       <c r="C48" s="136"/>
       <c r="D48" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E48" s="105">
         <v>3500</v>
@@ -6240,7 +6240,7 @@
       <c r="B49" s="135"/>
       <c r="C49" s="136"/>
       <c r="D49" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E49" s="105">
         <v>360</v>
@@ -6256,7 +6256,7 @@
       <c r="B50" s="137"/>
       <c r="C50" s="138"/>
       <c r="D50" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E50" s="105">
         <v>1700</v>
@@ -6272,13 +6272,13 @@
         <v>45</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C51" s="128" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>305</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>306</v>
       </c>
       <c r="E51" s="105">
         <v>75773</v>
@@ -6293,10 +6293,10 @@
       <c r="A52" s="95">
         <v>46</v>
       </c>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
       <c r="D52" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E52" s="16">
         <v>6641</v>
@@ -6311,10 +6311,10 @@
       <c r="A53" s="95">
         <v>47</v>
       </c>
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
+      <c r="B53" s="132"/>
+      <c r="C53" s="132"/>
       <c r="D53" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E53" s="105">
         <v>2586</v>
@@ -6329,10 +6329,10 @@
       <c r="A54" s="95">
         <v>48</v>
       </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="130"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E54" s="16">
         <v>894</v>
@@ -6347,12 +6347,12 @@
       <c r="A55" s="95">
         <v>49</v>
       </c>
-      <c r="B55" s="130"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>310</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>311</v>
       </c>
       <c r="E55" s="16">
         <v>500</v>
@@ -6368,11 +6368,11 @@
         <v>50</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="134"/>
       <c r="D56" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E56" s="16">
         <v>25136</v>
@@ -6390,13 +6390,13 @@
       <c r="B57" s="135"/>
       <c r="C57" s="136"/>
       <c r="D57" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E57" s="16">
         <v>8715</v>
       </c>
       <c r="F57" s="101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="80"/>
@@ -6406,7 +6406,7 @@
       <c r="B58" s="137"/>
       <c r="C58" s="138"/>
       <c r="D58" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E58" s="105">
         <v>704</v>
@@ -6422,19 +6422,19 @@
         <v>52</v>
       </c>
       <c r="B59" s="128" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="128" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="D59" s="37" t="s">
         <v>317</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>318</v>
       </c>
       <c r="E59" s="16">
         <v>5000</v>
       </c>
       <c r="F59" s="101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="80"/>
@@ -6443,10 +6443,10 @@
       <c r="A60" s="95">
         <v>53</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="132"/>
       <c r="D60" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E60" s="16">
         <v>4000</v>
@@ -6461,10 +6461,10 @@
       <c r="A61" s="95">
         <v>54</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="132"/>
       <c r="D61" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E61" s="16">
         <v>2500</v>
@@ -6479,10 +6479,10 @@
       <c r="A62" s="95">
         <v>55</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
       <c r="D62" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E62" s="16">
         <v>3150</v>
@@ -6497,10 +6497,10 @@
       <c r="A63" s="95">
         <v>56</v>
       </c>
-      <c r="B63" s="129"/>
-      <c r="C63" s="130"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E63" s="16">
         <v>1000</v>
@@ -6515,12 +6515,12 @@
       <c r="A64" s="95">
         <v>57</v>
       </c>
-      <c r="B64" s="129"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="128" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>324</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>325</v>
       </c>
       <c r="E64" s="16">
         <v>8000</v>
@@ -6535,16 +6535,16 @@
       <c r="A65" s="95">
         <v>58</v>
       </c>
-      <c r="B65" s="129"/>
-      <c r="C65" s="130"/>
+      <c r="B65" s="132"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E65" s="16">
         <v>1703</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G65" s="85"/>
       <c r="H65" s="80"/>
@@ -6553,28 +6553,28 @@
       <c r="A66" s="95">
         <v>59</v>
       </c>
-      <c r="B66" s="129"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="128" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>327</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>328</v>
       </c>
       <c r="E66" s="39">
         <v>250</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="80"/>
     </row>
     <row r="67" spans="1:10" ht="56.25" customHeight="1">
       <c r="A67" s="95"/>
-      <c r="B67" s="129"/>
-      <c r="C67" s="130"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E67" s="105">
         <v>2000</v>
@@ -6597,18 +6597,18 @@
       <c r="A68" s="95">
         <v>64</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="130" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="131"/>
+      <c r="D68" s="37" t="s">
         <v>334</v>
-      </c>
-      <c r="C68" s="132"/>
-      <c r="D68" s="37" t="s">
-        <v>335</v>
       </c>
       <c r="E68" s="104">
         <v>7796</v>
       </c>
       <c r="F68" s="101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -6618,19 +6618,19 @@
         <v>61</v>
       </c>
       <c r="B69" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="128" t="s">
         <v>330</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="D69" s="37" t="s">
         <v>331</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>332</v>
       </c>
       <c r="E69" s="16">
         <v>4000</v>
       </c>
       <c r="F69" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G69" s="85"/>
       <c r="H69" s="80"/>
@@ -6639,10 +6639,10 @@
       <c r="A70" s="95">
         <v>62</v>
       </c>
-      <c r="B70" s="130"/>
-      <c r="C70" s="130"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E70" s="16">
         <v>2500</v>
@@ -8162,6 +8162,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B68:C68"/>
@@ -8178,11 +8183,6 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8221,7 +8221,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -8716,7 +8716,7 @@
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="116"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="152" t="s">
         <v>19</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="118"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="153"/>
       <c r="D32" s="14" t="s">
         <v>20</v>

--- a/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/activities/social_services/ספר שירותים חברתיים 2017 לעיצוב.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/activities/social_services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35DBF7-CD17-B04C-B8D2-840958B2F86A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB9D389-5E28-0F43-9518-3FC4FA921082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,9 +587,6 @@
     <t>תחליפי אשפוז -טיפול בבעלי תחלואה כפולה</t>
   </si>
   <si>
-    <t>אשפוזיות- שירותי גמילה</t>
-  </si>
-  <si>
     <t>שיקום נכי נפש בקהילה- חברה - מועדונים חברתיים</t>
   </si>
   <si>
@@ -1107,6 +1104,9 @@
   </si>
   <si>
     <t xml:space="preserve">שיקום נכי נפש בקהילה- שירותי שיקום בדיור (הוסטלים) </t>
+  </si>
+  <si>
+    <t>אשפוזיות גמילה מסמים, אלכוהול וחומרים פסיכואקטיביים</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1794,45 +1794,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,9 +1843,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2589,10 +2589,10 @@
   <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="26" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="26" customWidth="1"/>
@@ -2609,7 +2609,7 @@
     <col min="13" max="16384" width="7.7109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="31" customFormat="1" ht="22">
+    <row r="1" spans="1:16" s="31" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="74"/>
       <c r="B1" s="46" t="s">
         <v>166</v>
@@ -2637,12 +2637,12 @@
       <c r="O1" s="28"/>
       <c r="P1" s="30"/>
     </row>
-    <row r="2" spans="1:16" ht="22">
+    <row r="2" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="74">
         <v>1</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>171</v>
@@ -2659,7 +2659,7 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
     </row>
-    <row r="3" spans="1:16" ht="44">
+    <row r="3" spans="1:16" ht="44" x14ac:dyDescent="0.25">
       <c r="A3" s="74">
         <v>2</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:16" ht="22">
+    <row r="4" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
         <v>3</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
-    <row r="5" spans="1:16" ht="22">
+    <row r="5" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
         <v>4</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="G5" s="51"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:16" ht="21">
+    <row r="6" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
         <v>5</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>176</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" s="11">
         <v>235621</v>
@@ -2733,7 +2733,7 @@
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:16" ht="22">
+    <row r="7" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <v>6</v>
       </c>
@@ -2751,14 +2751,14 @@
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:16" ht="22">
+    <row r="8" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>7</v>
       </c>
       <c r="B8" s="112"/>
       <c r="C8" s="115"/>
       <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="11">
         <v>170485</v>
@@ -2769,14 +2769,14 @@
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="1:16" ht="22">
+    <row r="9" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>8</v>
       </c>
       <c r="B9" s="112"/>
       <c r="C9" s="115"/>
       <c r="D9" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="11">
         <v>120000</v>
@@ -2787,14 +2787,14 @@
       <c r="G9" s="51"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="1:16" ht="22">
+    <row r="10" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>9</v>
       </c>
       <c r="B10" s="112"/>
       <c r="C10" s="115"/>
       <c r="D10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="11">
         <v>83000</v>
@@ -2805,14 +2805,14 @@
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
     </row>
-    <row r="11" spans="1:16" ht="22">
+    <row r="11" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>10</v>
       </c>
       <c r="B11" s="112"/>
       <c r="C11" s="115"/>
       <c r="D11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="11">
         <v>78000</v>
@@ -2823,14 +2823,14 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
     </row>
-    <row r="12" spans="1:16" ht="22">
+    <row r="12" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="74">
         <v>11</v>
       </c>
       <c r="B12" s="112"/>
       <c r="C12" s="115"/>
       <c r="D12" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="11">
         <v>34365</v>
@@ -2843,14 +2843,14 @@
       <c r="I12" s="33"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:16" ht="22">
+    <row r="13" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="74">
         <v>12</v>
       </c>
       <c r="B13" s="112"/>
       <c r="C13" s="115"/>
       <c r="D13" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="11">
         <v>33000</v>
@@ -2861,14 +2861,14 @@
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
     </row>
-    <row r="14" spans="1:16" ht="22">
+    <row r="14" spans="1:16" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="74">
         <v>13</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="115"/>
       <c r="D14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="11">
         <v>30000</v>
@@ -2879,14 +2879,14 @@
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
     </row>
-    <row r="15" spans="1:16" ht="22">
+    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="74">
         <v>14</v>
       </c>
       <c r="B15" s="112"/>
       <c r="C15" s="115"/>
       <c r="D15" s="5" t="s">
-        <v>178</v>
+        <v>351</v>
       </c>
       <c r="E15" s="11">
         <v>20000</v>
@@ -2899,14 +2899,14 @@
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="44">
+    <row r="16" spans="1:16" ht="44" x14ac:dyDescent="0.25">
       <c r="A16" s="74">
         <v>15</v>
       </c>
       <c r="B16" s="112"/>
       <c r="C16" s="115"/>
       <c r="D16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="11">
         <v>19500</v>
@@ -2917,14 +2917,14 @@
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
     </row>
-    <row r="17" spans="1:10" ht="22">
+    <row r="17" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A17" s="74">
         <v>16</v>
       </c>
       <c r="B17" s="112"/>
       <c r="C17" s="115"/>
       <c r="D17" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="11">
         <v>18000</v>
@@ -2937,14 +2937,14 @@
       <c r="I17" s="33"/>
       <c r="J17" s="35"/>
     </row>
-    <row r="18" spans="1:10" ht="44">
+    <row r="18" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A18" s="74">
         <v>17</v>
       </c>
       <c r="B18" s="112"/>
       <c r="C18" s="115"/>
       <c r="D18" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="11">
         <v>13000</v>
@@ -2955,14 +2955,14 @@
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
     </row>
-    <row r="19" spans="1:10" ht="22">
+    <row r="19" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="74">
         <v>18</v>
       </c>
       <c r="B19" s="112"/>
       <c r="C19" s="115"/>
       <c r="D19" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="11">
         <v>13000</v>
@@ -2975,14 +2975,14 @@
       <c r="I19" s="33"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="22">
+    <row r="20" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A20" s="74">
         <v>19</v>
       </c>
       <c r="B20" s="112"/>
       <c r="C20" s="115"/>
       <c r="D20" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20" s="11">
         <v>12000</v>
@@ -2993,14 +2993,14 @@
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
     </row>
-    <row r="21" spans="1:10" ht="44">
+    <row r="21" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A21" s="74">
         <v>20</v>
       </c>
       <c r="B21" s="112"/>
       <c r="C21" s="115"/>
       <c r="D21" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E21" s="11">
         <v>8700</v>
@@ -3011,28 +3011,28 @@
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
     </row>
-    <row r="22" spans="1:10" ht="44">
+    <row r="22" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A22" s="74">
         <v>21</v>
       </c>
       <c r="B22" s="112"/>
       <c r="C22" s="115"/>
       <c r="D22" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="6"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
     </row>
-    <row r="23" spans="1:10" ht="22">
+    <row r="23" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A23" s="74">
         <v>22</v>
       </c>
       <c r="B23" s="112"/>
       <c r="C23" s="115"/>
       <c r="D23" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="11">
         <v>7375</v>
@@ -3043,14 +3043,14 @@
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="1:10" ht="22">
+    <row r="24" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A24" s="74">
         <v>23</v>
       </c>
       <c r="B24" s="112"/>
       <c r="C24" s="115"/>
       <c r="D24" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="11">
         <v>5500</v>
@@ -3061,14 +3061,14 @@
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
     </row>
-    <row r="25" spans="1:10" ht="44">
+    <row r="25" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A25" s="74">
         <v>24</v>
       </c>
       <c r="B25" s="112"/>
       <c r="C25" s="115"/>
       <c r="D25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="11">
         <v>3500</v>
@@ -3079,14 +3079,14 @@
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="1:10" ht="22">
+    <row r="26" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A26" s="74">
         <v>25</v>
       </c>
       <c r="B26" s="112"/>
       <c r="C26" s="115"/>
       <c r="D26" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E26" s="11">
         <v>1500</v>
@@ -3097,14 +3097,14 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:10" ht="22">
+    <row r="27" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>26</v>
       </c>
       <c r="B27" s="112"/>
       <c r="C27" s="115"/>
       <c r="D27" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E27" s="11">
         <v>1000</v>
@@ -3117,14 +3117,14 @@
       <c r="I27" s="33"/>
       <c r="J27" s="35"/>
     </row>
-    <row r="28" spans="1:10" ht="88">
+    <row r="28" spans="1:10" ht="88" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>27</v>
       </c>
       <c r="B28" s="112"/>
       <c r="C28" s="115"/>
       <c r="D28" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="11">
         <v>730</v>
@@ -3135,14 +3135,14 @@
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
     </row>
-    <row r="29" spans="1:10" ht="22">
+    <row r="29" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A29" s="74">
         <v>28</v>
       </c>
       <c r="B29" s="112"/>
       <c r="C29" s="115"/>
       <c r="D29" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="11">
         <v>680</v>
@@ -3153,32 +3153,32 @@
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
     </row>
-    <row r="30" spans="1:10" ht="22">
+    <row r="30" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A30" s="74">
         <v>29</v>
       </c>
       <c r="B30" s="112"/>
       <c r="C30" s="115"/>
       <c r="D30" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" s="11">
         <v>650</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:10" ht="22">
+    <row r="31" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A31" s="74">
         <v>30</v>
       </c>
       <c r="B31" s="112"/>
       <c r="C31" s="110"/>
       <c r="D31" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31" s="11">
         <v>407</v>
@@ -3189,16 +3189,16 @@
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
     </row>
-    <row r="32" spans="1:10" ht="44">
+    <row r="32" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A32" s="74">
         <v>31</v>
       </c>
       <c r="B32" s="112"/>
       <c r="C32" s="109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" s="11">
         <v>150000</v>
@@ -3211,14 +3211,14 @@
       <c r="I32" s="33"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" ht="44">
+    <row r="33" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A33" s="74">
         <v>32</v>
       </c>
       <c r="B33" s="112"/>
       <c r="C33" s="115"/>
       <c r="D33" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33" s="11">
         <v>50000</v>
@@ -3230,14 +3230,14 @@
       <c r="H33" s="52"/>
       <c r="I33" s="33"/>
     </row>
-    <row r="34" spans="1:10" ht="22">
+    <row r="34" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A34" s="74">
         <v>33</v>
       </c>
       <c r="B34" s="112"/>
       <c r="C34" s="115"/>
       <c r="D34" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" s="11">
         <v>18146</v>
@@ -3249,14 +3249,14 @@
       <c r="H34" s="53"/>
       <c r="I34" s="33"/>
     </row>
-    <row r="35" spans="1:10" ht="22">
+    <row r="35" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A35" s="74">
         <v>34</v>
       </c>
       <c r="B35" s="112"/>
       <c r="C35" s="115"/>
       <c r="D35" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E35" s="11">
         <v>2260</v>
@@ -3269,14 +3269,14 @@
       <c r="I35" s="33"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" spans="1:10" ht="22">
+    <row r="36" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A36" s="74">
         <v>35</v>
       </c>
       <c r="B36" s="112"/>
       <c r="C36" s="110"/>
       <c r="D36" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="11">
         <v>350</v>
@@ -3287,16 +3287,16 @@
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
     </row>
-    <row r="37" spans="1:10" ht="22">
+    <row r="37" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A37" s="74">
         <v>36</v>
       </c>
       <c r="B37" s="112"/>
       <c r="C37" s="115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="11">
         <v>9500</v>
@@ -3307,14 +3307,14 @@
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
     </row>
-    <row r="38" spans="1:10" ht="22">
+    <row r="38" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A38" s="74">
         <v>37</v>
       </c>
       <c r="B38" s="112"/>
       <c r="C38" s="115"/>
       <c r="D38" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E38" s="11">
         <v>4000</v>
@@ -3325,14 +3325,14 @@
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
     </row>
-    <row r="39" spans="1:10" ht="22">
+    <row r="39" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>38</v>
       </c>
       <c r="B39" s="112"/>
       <c r="C39" s="115"/>
       <c r="D39" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39" s="11">
         <v>4000</v>
@@ -3343,14 +3343,14 @@
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
     </row>
-    <row r="40" spans="1:10" ht="22">
+    <row r="40" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A40" s="74">
         <v>39</v>
       </c>
       <c r="B40" s="112"/>
       <c r="C40" s="115"/>
       <c r="D40" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E40" s="11">
         <v>450</v>
@@ -3361,14 +3361,14 @@
       <c r="G40" s="53"/>
       <c r="H40" s="53"/>
     </row>
-    <row r="41" spans="1:10" ht="22">
+    <row r="41" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A41" s="74">
         <v>40</v>
       </c>
       <c r="B41" s="112"/>
       <c r="C41" s="110"/>
       <c r="D41" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E41" s="11">
         <v>400</v>
@@ -3379,14 +3379,14 @@
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
     </row>
-    <row r="42" spans="1:10" ht="44">
+    <row r="42" spans="1:10" ht="44" x14ac:dyDescent="0.25">
       <c r="A42" s="74">
         <v>41</v>
       </c>
       <c r="B42" s="112"/>
       <c r="C42" s="15"/>
       <c r="D42" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E42" s="11">
         <v>1000</v>
@@ -3398,16 +3398,16 @@
       <c r="H42" s="53"/>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:10" ht="22">
+    <row r="43" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A43" s="74">
         <v>42</v>
       </c>
       <c r="B43" s="112"/>
       <c r="C43" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E43" s="11">
         <v>3620</v>
@@ -3418,14 +3418,14 @@
       <c r="G43" s="52"/>
       <c r="H43" s="52"/>
     </row>
-    <row r="44" spans="1:10" ht="22">
+    <row r="44" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A44" s="74">
         <v>43</v>
       </c>
       <c r="B44" s="112"/>
       <c r="C44" s="115"/>
       <c r="D44" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="11">
         <v>2000</v>
@@ -3436,14 +3436,14 @@
       <c r="G44" s="52"/>
       <c r="H44" s="53"/>
     </row>
-    <row r="45" spans="1:10" ht="22">
+    <row r="45" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A45" s="74">
         <v>44</v>
       </c>
       <c r="B45" s="112"/>
       <c r="C45" s="115"/>
       <c r="D45" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45" s="11">
         <v>1146</v>
@@ -3454,54 +3454,54 @@
       <c r="G45" s="52"/>
       <c r="H45" s="53"/>
     </row>
-    <row r="46" spans="1:10" ht="22">
+    <row r="46" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A46" s="74">
         <v>45</v>
       </c>
       <c r="B46" s="112"/>
       <c r="C46" s="110"/>
       <c r="D46" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="11">
         <v>500</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
     </row>
-    <row r="47" spans="1:10" ht="22">
+    <row r="47" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A47" s="74">
         <v>46</v>
       </c>
       <c r="B47" s="112"/>
       <c r="C47" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="E47" s="11">
         <v>30000</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
       <c r="I47" s="33"/>
       <c r="J47" s="35"/>
     </row>
-    <row r="48" spans="1:10" ht="22">
+    <row r="48" spans="1:10" ht="22" x14ac:dyDescent="0.25">
       <c r="A48" s="74">
         <v>47</v>
       </c>
       <c r="B48" s="112"/>
       <c r="C48" s="110"/>
       <c r="D48" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E48" s="11">
         <v>1000</v>
@@ -3512,39 +3512,39 @@
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
     </row>
-    <row r="49" spans="1:11" ht="22">
+    <row r="49" spans="1:11" ht="22" x14ac:dyDescent="0.25">
       <c r="A49" s="74">
         <v>48</v>
       </c>
       <c r="B49" s="112"/>
       <c r="C49" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="57" t="s">
         <v>222</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>223</v>
       </c>
       <c r="E49" s="58">
         <v>3870</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G49" s="60"/>
       <c r="H49" s="60"/>
       <c r="K49" s="71"/>
     </row>
-    <row r="50" spans="1:11" ht="18" customHeight="1">
+    <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="74">
         <v>49</v>
       </c>
       <c r="B50" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="D50" s="57" t="s">
         <v>226</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>227</v>
       </c>
       <c r="E50" s="58">
         <v>100000</v>
@@ -3555,16 +3555,16 @@
       <c r="G50" s="60"/>
       <c r="H50" s="60"/>
     </row>
-    <row r="51" spans="1:11" ht="22">
+    <row r="51" spans="1:11" ht="22" x14ac:dyDescent="0.25">
       <c r="A51" s="74">
         <v>50</v>
       </c>
       <c r="B51" s="114"/>
       <c r="C51" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="57" t="s">
         <v>228</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>229</v>
       </c>
       <c r="E51" s="58">
         <v>80237</v>
@@ -3575,36 +3575,36 @@
       <c r="G51" s="60"/>
       <c r="H51" s="60"/>
     </row>
-    <row r="52" spans="1:11" ht="22">
+    <row r="52" spans="1:11" ht="22" x14ac:dyDescent="0.25">
       <c r="A52" s="74">
         <v>51</v>
       </c>
       <c r="B52" s="114"/>
       <c r="C52" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="57" t="s">
         <v>230</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>231</v>
       </c>
       <c r="E52" s="58">
         <v>3000</v>
       </c>
       <c r="F52" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G52" s="62"/>
       <c r="H52" s="63"/>
     </row>
-    <row r="53" spans="1:11" ht="44">
+    <row r="53" spans="1:11" ht="44" x14ac:dyDescent="0.25">
       <c r="A53" s="74">
         <v>52</v>
       </c>
       <c r="B53" s="114"/>
       <c r="C53" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="57" t="s">
         <v>233</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>234</v>
       </c>
       <c r="E53" s="58">
         <v>1500</v>
@@ -3615,16 +3615,16 @@
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
     </row>
-    <row r="54" spans="1:11" ht="22">
+    <row r="54" spans="1:11" ht="22" x14ac:dyDescent="0.25">
       <c r="A54" s="74">
         <v>53</v>
       </c>
       <c r="B54" s="114"/>
       <c r="C54" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="66" t="s">
         <v>235</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>236</v>
       </c>
       <c r="E54" s="67">
         <v>500</v>
@@ -3635,11 +3635,11 @@
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
     </row>
-    <row r="56" spans="1:11" ht="21">
+    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="F56" s="42"/>
       <c r="H56" s="73"/>
     </row>
-    <row r="57" spans="1:11" ht="16">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="D57" s="72"/>
       <c r="F57" s="42"/>
     </row>
@@ -3666,7 +3666,7 @@
       <selection activeCell="A101" activeCellId="4" sqref="A52:XFD52 A79:XFD79 A95:XFD95 A100:XFD100 A101:XFD101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
@@ -3679,16 +3679,16 @@
     <col min="13" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -3697,12 +3697,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="109" t="s">
         <v>78</v>
@@ -3718,7 +3718,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22">
+    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3735,12 +3735,12 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.5" customHeight="1">
+    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="115"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="125" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3754,12 +3754,12 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1">
+    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="115"/>
-      <c r="C5" s="117"/>
+      <c r="C5" s="126"/>
       <c r="D5" s="6" t="s">
         <v>127</v>
       </c>
@@ -3770,12 +3770,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.5" customHeight="1">
+    <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="115"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="125" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3788,7 +3788,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.5" customHeight="1">
+    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1">
+    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3837,12 +3837,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="40.5" customHeight="1">
+    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="115"/>
-      <c r="C10" s="117"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="6" t="s">
         <v>101</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.5" customHeight="1">
+    <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3871,12 +3871,12 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22">
+    <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="115"/>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="125" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3889,7 +3889,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22">
+    <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40.5" customHeight="1">
+    <row r="14" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22">
+    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="22">
+    <row r="16" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="22">
+    <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" ht="22">
+    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="22">
+    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="22">
+    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="22">
+    <row r="21" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4030,12 +4030,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22">
+    <row r="22" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="115"/>
-      <c r="C22" s="117"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="6" t="s">
         <v>100</v>
       </c>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5" customHeight="1">
+    <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="22">
+    <row r="24" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.75" customHeight="1">
+    <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.5" customHeight="1">
+    <row r="26" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1">
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.75" customHeight="1">
+    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="34.5" customHeight="1">
+    <row r="29" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45" customHeight="1">
+    <row r="30" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="33" customHeight="1">
+    <row r="31" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="22">
+    <row r="32" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="22">
+    <row r="33" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="22">
+    <row r="34" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" ht="22">
+    <row r="35" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="36" customHeight="1">
+    <row r="36" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="22">
+    <row r="37" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="22">
+    <row r="38" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="22">
+    <row r="39" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="22">
+    <row r="40" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="22">
+    <row r="41" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="22">
+    <row r="42" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="22">
+    <row r="43" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="22">
+    <row r="44" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="22">
+    <row r="45" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="22">
+    <row r="46" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="44">
+    <row r="47" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="40.5" customHeight="1">
+    <row r="48" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="40.5" customHeight="1">
+    <row r="49" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="22">
+    <row r="50" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1">
+    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4521,14 +4521,14 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="22">
+    <row r="52" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="C52" s="124" t="s">
+      <c r="B52" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="122" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="21" t="s">
@@ -4543,12 +4543,12 @@
         <v>7617</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="22">
+    <row r="53" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="122"/>
-      <c r="C53" s="125"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="21" t="s">
         <v>152</v>
       </c>
@@ -4559,12 +4559,12 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="22">
+    <row r="54" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="122"/>
-      <c r="C54" s="125"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="21" t="s">
         <v>145</v>
       </c>
@@ -4575,12 +4575,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="22">
+    <row r="55" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="122"/>
-      <c r="C55" s="125"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="21" t="s">
         <v>151</v>
       </c>
@@ -4591,12 +4591,12 @@
         <v>877</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="22">
+    <row r="56" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="125"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="21" t="s">
         <v>131</v>
       </c>
@@ -4607,12 +4607,12 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="22">
+    <row r="57" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="122"/>
-      <c r="C57" s="125"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="21" t="s">
         <v>132</v>
       </c>
@@ -4623,12 +4623,12 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="22">
+    <row r="58" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="122"/>
-      <c r="C58" s="125"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="21" t="s">
         <v>130</v>
       </c>
@@ -4639,12 +4639,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="22">
+    <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>58</v>
       </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="125"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="21" t="s">
         <v>153</v>
       </c>
@@ -4655,12 +4655,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="22">
+    <row r="60" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>59</v>
       </c>
-      <c r="B60" s="122"/>
-      <c r="C60" s="125"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="21" t="s">
         <v>165</v>
       </c>
@@ -4671,12 +4671,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="22">
+    <row r="61" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>60</v>
       </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="126"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="21" t="s">
         <v>146</v>
       </c>
@@ -4687,12 +4687,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="22">
+    <row r="62" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>61</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="121" t="s">
+      <c r="B62" s="120"/>
+      <c r="C62" s="119" t="s">
         <v>133</v>
       </c>
       <c r="D62" s="21" t="s">
@@ -4705,12 +4705,12 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="22">
+    <row r="63" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>62</v>
       </c>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="120"/>
       <c r="D63" s="21" t="s">
         <v>159</v>
       </c>
@@ -4721,12 +4721,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="22">
+    <row r="64" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>63</v>
       </c>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="120"/>
       <c r="D64" s="21" t="s">
         <v>144</v>
       </c>
@@ -4737,12 +4737,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="44">
+    <row r="65" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>64</v>
       </c>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="120"/>
       <c r="D65" s="21" t="s">
         <v>134</v>
       </c>
@@ -4753,12 +4753,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="22">
+    <row r="66" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>65</v>
       </c>
-      <c r="B66" s="122"/>
-      <c r="C66" s="122"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="120"/>
       <c r="D66" s="21" t="s">
         <v>143</v>
       </c>
@@ -4769,12 +4769,12 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="44">
+    <row r="67" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>66</v>
       </c>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="120"/>
       <c r="D67" s="21" t="s">
         <v>161</v>
       </c>
@@ -4785,12 +4785,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="44">
+    <row r="68" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>67</v>
       </c>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122"/>
+      <c r="B68" s="120"/>
+      <c r="C68" s="120"/>
       <c r="D68" s="21" t="s">
         <v>162</v>
       </c>
@@ -4801,12 +4801,12 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="22">
+    <row r="69" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>68</v>
       </c>
-      <c r="B69" s="122"/>
-      <c r="C69" s="122"/>
+      <c r="B69" s="120"/>
+      <c r="C69" s="120"/>
       <c r="D69" s="21" t="s">
         <v>139</v>
       </c>
@@ -4817,12 +4817,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="44">
+    <row r="70" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>69</v>
       </c>
-      <c r="B70" s="122"/>
-      <c r="C70" s="122"/>
+      <c r="B70" s="120"/>
+      <c r="C70" s="120"/>
       <c r="D70" s="21" t="s">
         <v>136</v>
       </c>
@@ -4833,12 +4833,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="44">
+    <row r="71" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>70</v>
       </c>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
@@ -4849,12 +4849,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="44">
+    <row r="72" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>71</v>
       </c>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="21" t="s">
         <v>137</v>
       </c>
@@ -4865,12 +4865,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="44">
+    <row r="73" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>72</v>
       </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
+      <c r="B73" s="120"/>
+      <c r="C73" s="120"/>
       <c r="D73" s="21" t="s">
         <v>164</v>
       </c>
@@ -4881,12 +4881,12 @@
         <v>915</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="22">
+    <row r="74" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>73</v>
       </c>
-      <c r="B74" s="122"/>
-      <c r="C74" s="123"/>
+      <c r="B74" s="120"/>
+      <c r="C74" s="121"/>
       <c r="D74" s="21" t="s">
         <v>160</v>
       </c>
@@ -4897,12 +4897,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="22">
+    <row r="75" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>74</v>
       </c>
-      <c r="B75" s="122"/>
-      <c r="C75" s="124" t="s">
+      <c r="B75" s="120"/>
+      <c r="C75" s="122" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="21" t="s">
@@ -4915,12 +4915,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="22">
+    <row r="76" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>75</v>
       </c>
-      <c r="B76" s="122"/>
-      <c r="C76" s="125"/>
+      <c r="B76" s="120"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="21" t="s">
         <v>157</v>
       </c>
@@ -4931,12 +4931,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="22">
+    <row r="77" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>76</v>
       </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="126"/>
+      <c r="B77" s="120"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="21" t="s">
         <v>156</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="40.5" customHeight="1">
+    <row r="78" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.75" customHeight="1">
+    <row r="79" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.75" customHeight="1">
+    <row r="80" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.5" customHeight="1">
+    <row r="81" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>975.66666666666663</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.75" customHeight="1">
+    <row r="82" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="37.5" customHeight="1">
+    <row r="83" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="60.75" customHeight="1">
+    <row r="84" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="60.75" customHeight="1">
+    <row r="85" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.25" customHeight="1">
+    <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="10" customFormat="1" ht="121.5" customHeight="1">
+    <row r="87" spans="1:6" s="10" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="81" customHeight="1">
+    <row r="88" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="82.5" customHeight="1">
+    <row r="89" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="77" customFormat="1" ht="31.5" customHeight="1">
+    <row r="90" spans="1:6" s="77" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="55.5" customHeight="1">
+    <row r="91" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>6382</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="20.25" customHeight="1">
+    <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>14577</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="22">
+    <row r="93" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>92</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="121" t="s">
-        <v>239</v>
+      <c r="B93" s="116"/>
+      <c r="C93" s="119" t="s">
+        <v>238</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>148</v>
@@ -5246,12 +5246,12 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="22">
+    <row r="94" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>93</v>
       </c>
-      <c r="B94" s="119"/>
-      <c r="C94" s="122"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="120"/>
       <c r="D94" s="21" t="s">
         <v>149</v>
       </c>
@@ -5262,12 +5262,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="22">
+    <row r="95" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A95" s="25">
         <v>94</v>
       </c>
-      <c r="B95" s="119"/>
-      <c r="C95" s="122"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="21" t="s">
         <v>128</v>
       </c>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6" ht="22">
+    <row r="96" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>95</v>
       </c>
-      <c r="B96" s="120"/>
-      <c r="C96" s="123"/>
+      <c r="B96" s="118"/>
+      <c r="C96" s="121"/>
       <c r="D96" s="21" t="s">
         <v>147</v>
       </c>
@@ -5294,15 +5294,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B52:B77"/>
-    <mergeCell ref="C62:C74"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="C75:C77"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C30"/>
@@ -5313,6 +5304,15 @@
     <mergeCell ref="C12:C22"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B52:B77"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="C75:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5327,7 +5327,7 @@
       <selection activeCell="B44" sqref="B44:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="96" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="81" customWidth="1"/>
@@ -5340,16 +5340,16 @@
     <col min="11" max="16384" width="7.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="1" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -5360,18 +5360,18 @@
       <c r="G1" s="82"/>
       <c r="H1" s="82"/>
     </row>
-    <row r="2" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="2" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="95">
         <v>1</v>
       </c>
       <c r="B2" s="128" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="16">
         <v>950000</v>
@@ -5382,14 +5382,14 @@
       <c r="G2" s="84"/>
       <c r="H2" s="82"/>
     </row>
-    <row r="3" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="3" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="95">
         <v>2</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="16">
         <v>50062</v>
@@ -5400,14 +5400,14 @@
       <c r="G3" s="84"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="4" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="95">
         <v>3</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="16">
         <v>28379</v>
@@ -5418,32 +5418,32 @@
       <c r="G4" s="82"/>
       <c r="H4" s="82"/>
     </row>
-    <row r="5" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="5" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="95">
         <v>4</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" s="99">
         <v>25000</v>
       </c>
       <c r="F5" s="100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
     </row>
-    <row r="6" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="6" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="95">
         <v>5</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E6" s="16">
         <v>22875</v>
@@ -5454,14 +5454,14 @@
       <c r="G6" s="84"/>
       <c r="H6" s="82"/>
     </row>
-    <row r="7" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="7" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="95">
         <v>6</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="16">
         <v>4493</v>
@@ -5472,16 +5472,16 @@
       <c r="G7" s="84"/>
       <c r="H7" s="82"/>
     </row>
-    <row r="8" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="8" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="95">
         <v>7</v>
       </c>
-      <c r="B8" s="132"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>251</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>252</v>
       </c>
       <c r="E8" s="16">
         <v>265000</v>
@@ -5492,14 +5492,14 @@
       <c r="G8" s="84"/>
       <c r="H8" s="82"/>
     </row>
-    <row r="9" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="9" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="95">
         <v>8</v>
       </c>
-      <c r="B9" s="132"/>
-      <c r="C9" s="129"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="16">
         <v>349</v>
@@ -5510,16 +5510,16 @@
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
     </row>
-    <row r="10" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1">
+    <row r="10" spans="1:8" s="83" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>9</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="128" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>254</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>255</v>
       </c>
       <c r="E10" s="16">
         <v>158201</v>
@@ -5530,68 +5530,68 @@
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
     </row>
-    <row r="11" spans="1:8" ht="56.25" customHeight="1">
+    <row r="11" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
         <v>10</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E11" s="16">
         <v>29559</v>
       </c>
       <c r="F11" s="91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="80"/>
     </row>
-    <row r="12" spans="1:8" ht="56.25" customHeight="1">
+    <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="95">
         <v>11</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="16">
         <v>5800</v>
       </c>
       <c r="F12" s="91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G12" s="85"/>
       <c r="H12" s="80"/>
     </row>
-    <row r="13" spans="1:8" ht="56.25" customHeight="1">
+    <row r="13" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="95">
         <v>12</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="16">
         <v>3200</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
     </row>
-    <row r="14" spans="1:8" ht="56.25" customHeight="1">
+    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="95">
         <v>13</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E14" s="16">
         <v>570</v>
@@ -5602,16 +5602,16 @@
       <c r="G14" s="85"/>
       <c r="H14" s="80"/>
     </row>
-    <row r="15" spans="1:8" ht="56.25" customHeight="1">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="95">
         <v>14</v>
       </c>
-      <c r="B15" s="132"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>261</v>
       </c>
       <c r="E15" s="16">
         <v>42000</v>
@@ -5622,14 +5622,14 @@
       <c r="G15" s="85"/>
       <c r="H15" s="80"/>
     </row>
-    <row r="16" spans="1:8" ht="56.25" customHeight="1">
+    <row r="16" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="95">
         <v>15</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E16" s="16">
         <v>49000</v>
@@ -5640,14 +5640,14 @@
       <c r="G16" s="85"/>
       <c r="H16" s="80"/>
     </row>
-    <row r="17" spans="1:8" ht="56.25" customHeight="1">
+    <row r="17" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="95">
         <v>16</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E17" s="16">
         <v>4000</v>
@@ -5658,14 +5658,14 @@
       <c r="G17" s="85"/>
       <c r="H17" s="80"/>
     </row>
-    <row r="18" spans="1:8" ht="56.25" customHeight="1">
+    <row r="18" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="95">
         <v>17</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E18" s="16">
         <v>2673</v>
@@ -5676,14 +5676,14 @@
       <c r="G18" s="85"/>
       <c r="H18" s="80"/>
     </row>
-    <row r="19" spans="1:8" ht="56.25" customHeight="1">
+    <row r="19" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="95">
         <v>18</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="129"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E19" s="16">
         <v>4000</v>
@@ -5694,34 +5694,34 @@
       <c r="G19" s="85"/>
       <c r="H19" s="80"/>
     </row>
-    <row r="20" spans="1:8" ht="56.25" customHeight="1">
+    <row r="20" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
         <v>19</v>
       </c>
-      <c r="B20" s="132"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="128" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>266</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>267</v>
       </c>
       <c r="E20" s="16">
         <v>50649</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20" s="85"/>
       <c r="H20" s="80"/>
     </row>
-    <row r="21" spans="1:8" ht="56.25" customHeight="1">
+    <row r="21" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
         <v>20</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="16">
         <v>10246</v>
@@ -5732,14 +5732,14 @@
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:8" ht="56.25" customHeight="1">
+    <row r="22" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="95">
         <v>21</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="16">
         <v>9120</v>
@@ -5750,14 +5750,14 @@
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
     </row>
-    <row r="23" spans="1:8" ht="56.25" customHeight="1">
+    <row r="23" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95">
         <v>22</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="16">
         <v>3006</v>
@@ -5768,14 +5768,14 @@
       <c r="G23" s="85"/>
       <c r="H23" s="80"/>
     </row>
-    <row r="24" spans="1:8" ht="56.25" customHeight="1">
+    <row r="24" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="95">
         <v>23</v>
       </c>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="39">
         <v>3482</v>
@@ -5786,14 +5786,14 @@
       <c r="G24" s="80"/>
       <c r="H24" s="80"/>
     </row>
-    <row r="25" spans="1:8" ht="56.25" customHeight="1">
+    <row r="25" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="95">
         <v>24</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="129"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="16">
         <v>2121</v>
@@ -5804,16 +5804,16 @@
       <c r="G25" s="85"/>
       <c r="H25" s="80"/>
     </row>
-    <row r="26" spans="1:8" ht="56.25" customHeight="1">
+    <row r="26" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="95">
         <v>25</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="128" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>273</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>274</v>
       </c>
       <c r="E26" s="16">
         <v>15999</v>
@@ -5824,14 +5824,14 @@
       <c r="G26" s="80"/>
       <c r="H26" s="80"/>
     </row>
-    <row r="27" spans="1:8" ht="56.25" customHeight="1">
+    <row r="27" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="95">
         <v>26</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E27" s="16">
         <v>7171</v>
@@ -5842,16 +5842,16 @@
       <c r="G27" s="85"/>
       <c r="H27" s="80"/>
     </row>
-    <row r="28" spans="1:8" ht="56.25" customHeight="1">
+    <row r="28" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="95">
         <v>27</v>
       </c>
-      <c r="B28" s="132"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>277</v>
       </c>
       <c r="E28" s="16">
         <v>21639</v>
@@ -5862,16 +5862,16 @@
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
     </row>
-    <row r="29" spans="1:8" ht="56.25" customHeight="1">
+    <row r="29" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="95">
         <v>28</v>
       </c>
-      <c r="B29" s="132"/>
+      <c r="B29" s="129"/>
       <c r="C29" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E29" s="16">
         <v>30000</v>
@@ -5882,14 +5882,14 @@
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
     </row>
-    <row r="30" spans="1:8" ht="56.25" customHeight="1">
+    <row r="30" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
         <v>29</v>
       </c>
-      <c r="B30" s="132"/>
+      <c r="B30" s="129"/>
       <c r="C30" s="97"/>
       <c r="D30" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="16">
         <v>6134</v>
@@ -5900,14 +5900,14 @@
       <c r="G30" s="85"/>
       <c r="H30" s="80"/>
     </row>
-    <row r="31" spans="1:8" ht="56.25" customHeight="1">
+    <row r="31" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
         <v>30</v>
       </c>
-      <c r="B31" s="132"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="97"/>
       <c r="D31" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="16">
         <v>2674</v>
@@ -5918,14 +5918,14 @@
       <c r="G31" s="85"/>
       <c r="H31" s="80"/>
     </row>
-    <row r="32" spans="1:8" ht="56.25" customHeight="1">
+    <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="95">
         <v>31</v>
       </c>
-      <c r="B32" s="132"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="97"/>
       <c r="D32" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="16">
         <v>6204</v>
@@ -5936,14 +5936,14 @@
       <c r="G32" s="85"/>
       <c r="H32" s="80"/>
     </row>
-    <row r="33" spans="1:8" ht="56.25" customHeight="1">
+    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="95">
         <v>32</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="97"/>
       <c r="D33" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E33" s="16">
         <v>1923</v>
@@ -5954,14 +5954,14 @@
       <c r="G33" s="85"/>
       <c r="H33" s="80"/>
     </row>
-    <row r="34" spans="1:8" ht="56.25" customHeight="1">
+    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="95">
         <v>33</v>
       </c>
-      <c r="B34" s="132"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="97"/>
       <c r="D34" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="16">
         <v>565</v>
@@ -5972,14 +5972,14 @@
       <c r="G34" s="80"/>
       <c r="H34" s="80"/>
     </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1">
+    <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="95">
         <v>34</v>
       </c>
-      <c r="B35" s="132"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="103"/>
       <c r="D35" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="16">
         <v>4579</v>
@@ -5990,16 +5990,16 @@
       <c r="G35" s="80"/>
       <c r="H35" s="80"/>
     </row>
-    <row r="36" spans="1:8" ht="56.25" customHeight="1">
+    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="95">
         <v>35</v>
       </c>
-      <c r="B36" s="132"/>
+      <c r="B36" s="129"/>
       <c r="C36" s="128" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>286</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>287</v>
       </c>
       <c r="E36" s="16">
         <v>7744</v>
@@ -6010,14 +6010,14 @@
       <c r="G36" s="80"/>
       <c r="H36" s="80"/>
     </row>
-    <row r="37" spans="1:8" ht="56.25" customHeight="1">
+    <row r="37" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="95">
         <v>36</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E37" s="16">
         <v>1500</v>
@@ -6028,14 +6028,14 @@
       <c r="G37" s="80"/>
       <c r="H37" s="80"/>
     </row>
-    <row r="38" spans="1:8" ht="56.25" customHeight="1">
+    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95">
         <v>37</v>
       </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" s="16">
         <v>800</v>
@@ -6046,14 +6046,14 @@
       <c r="G38" s="80"/>
       <c r="H38" s="80"/>
     </row>
-    <row r="39" spans="1:8" ht="56.25" customHeight="1">
+    <row r="39" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="95">
         <v>38</v>
       </c>
-      <c r="B39" s="132"/>
-      <c r="C39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E39" s="16">
         <v>500</v>
@@ -6064,16 +6064,16 @@
       <c r="G39" s="80"/>
       <c r="H39" s="80"/>
     </row>
-    <row r="40" spans="1:8" ht="56.25" customHeight="1">
+    <row r="40" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
         <v>39</v>
       </c>
-      <c r="B40" s="132"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="128" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>291</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>292</v>
       </c>
       <c r="E40" s="16">
         <v>5722</v>
@@ -6084,14 +6084,14 @@
       <c r="G40" s="80"/>
       <c r="H40" s="80"/>
     </row>
-    <row r="41" spans="1:8" ht="56.25" customHeight="1">
+    <row r="41" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
         <v>40</v>
       </c>
-      <c r="B41" s="132"/>
-      <c r="C41" s="129"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E41" s="16">
         <v>2348</v>
@@ -6102,16 +6102,16 @@
       <c r="G41" s="80"/>
       <c r="H41" s="80"/>
     </row>
-    <row r="42" spans="1:8" ht="56.25" customHeight="1">
+    <row r="42" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="95">
         <v>41</v>
       </c>
-      <c r="B42" s="132"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="128" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>295</v>
       </c>
       <c r="E42" s="16">
         <v>1231</v>
@@ -6123,14 +6123,14 @@
       <c r="G42" s="80"/>
       <c r="H42" s="80"/>
     </row>
-    <row r="43" spans="1:8" ht="56.25" customHeight="1">
+    <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95">
         <v>42</v>
       </c>
-      <c r="B43" s="132"/>
-      <c r="C43" s="129"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="130"/>
       <c r="D43" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E43" s="104">
         <v>9575</v>
@@ -6141,34 +6141,34 @@
       <c r="G43" s="80"/>
       <c r="H43" s="80"/>
     </row>
-    <row r="44" spans="1:8" ht="56.25" customHeight="1">
+    <row r="44" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="95">
         <v>39</v>
       </c>
       <c r="B44" s="133" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C44" s="134"/>
       <c r="D44" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E44" s="105">
         <v>162000</v>
       </c>
       <c r="F44" s="100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G44" s="85"/>
       <c r="H44" s="80"/>
     </row>
-    <row r="45" spans="1:8" ht="56.25" customHeight="1">
+    <row r="45" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="95">
         <v>40</v>
       </c>
       <c r="B45" s="135"/>
       <c r="C45" s="136"/>
       <c r="D45" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E45" s="105">
         <v>18272</v>
@@ -6179,14 +6179,14 @@
       <c r="G45" s="85"/>
       <c r="H45" s="80"/>
     </row>
-    <row r="46" spans="1:8" ht="56.25" customHeight="1">
+    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="95">
         <v>41</v>
       </c>
       <c r="B46" s="135"/>
       <c r="C46" s="136"/>
       <c r="D46" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E46" s="105">
         <v>19000</v>
@@ -6197,14 +6197,14 @@
       <c r="G46" s="85"/>
       <c r="H46" s="80"/>
     </row>
-    <row r="47" spans="1:8" ht="56.25" customHeight="1">
+    <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="95">
         <v>42</v>
       </c>
       <c r="B47" s="135"/>
       <c r="C47" s="136"/>
       <c r="D47" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E47" s="105">
         <v>6000</v>
@@ -6215,14 +6215,14 @@
       <c r="G47" s="80"/>
       <c r="H47" s="80"/>
     </row>
-    <row r="48" spans="1:8" ht="56.25" customHeight="1">
+    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="95">
         <v>43</v>
       </c>
       <c r="B48" s="135"/>
       <c r="C48" s="136"/>
       <c r="D48" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E48" s="105">
         <v>3500</v>
@@ -6233,14 +6233,14 @@
       <c r="G48" s="85"/>
       <c r="H48" s="80"/>
     </row>
-    <row r="49" spans="1:8" ht="56.25" customHeight="1">
+    <row r="49" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="95">
         <v>44</v>
       </c>
       <c r="B49" s="135"/>
       <c r="C49" s="136"/>
       <c r="D49" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E49" s="105">
         <v>360</v>
@@ -6251,12 +6251,12 @@
       <c r="G49" s="85"/>
       <c r="H49" s="80"/>
     </row>
-    <row r="50" spans="1:8" ht="56.25" customHeight="1">
+    <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="95"/>
       <c r="B50" s="137"/>
       <c r="C50" s="138"/>
       <c r="D50" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E50" s="105">
         <v>1700</v>
@@ -6267,18 +6267,18 @@
       <c r="G50" s="85"/>
       <c r="H50" s="80"/>
     </row>
-    <row r="51" spans="1:8" ht="56.25" customHeight="1">
+    <row r="51" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="95">
         <v>45</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C51" s="128" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>304</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>305</v>
       </c>
       <c r="E51" s="105">
         <v>75773</v>
@@ -6289,14 +6289,14 @@
       <c r="G51" s="85"/>
       <c r="H51" s="80"/>
     </row>
-    <row r="52" spans="1:8" ht="56.25" customHeight="1">
+    <row r="52" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="95">
         <v>46</v>
       </c>
-      <c r="B52" s="132"/>
-      <c r="C52" s="132"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E52" s="16">
         <v>6641</v>
@@ -6307,14 +6307,14 @@
       <c r="G52" s="80"/>
       <c r="H52" s="80"/>
     </row>
-    <row r="53" spans="1:8" ht="56.25" customHeight="1">
+    <row r="53" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="95">
         <v>47</v>
       </c>
-      <c r="B53" s="132"/>
-      <c r="C53" s="132"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E53" s="105">
         <v>2586</v>
@@ -6325,14 +6325,14 @@
       <c r="G53" s="80"/>
       <c r="H53" s="80"/>
     </row>
-    <row r="54" spans="1:8" ht="56.25" customHeight="1">
+    <row r="54" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="95">
         <v>48</v>
       </c>
-      <c r="B54" s="132"/>
-      <c r="C54" s="129"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="130"/>
       <c r="D54" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E54" s="16">
         <v>894</v>
@@ -6343,16 +6343,16 @@
       <c r="G54" s="80"/>
       <c r="H54" s="80"/>
     </row>
-    <row r="55" spans="1:8" ht="56.25" customHeight="1">
+    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="95">
         <v>49</v>
       </c>
-      <c r="B55" s="129"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>309</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>310</v>
       </c>
       <c r="E55" s="16">
         <v>500</v>
@@ -6363,16 +6363,16 @@
       <c r="G55" s="80"/>
       <c r="H55" s="80"/>
     </row>
-    <row r="56" spans="1:8" ht="56.25" customHeight="1">
+    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="95">
         <v>50</v>
       </c>
       <c r="B56" s="133" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C56" s="134"/>
       <c r="D56" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="16">
         <v>25136</v>
@@ -6383,30 +6383,30 @@
       <c r="G56" s="85"/>
       <c r="H56" s="80"/>
     </row>
-    <row r="57" spans="1:8" ht="56.25" customHeight="1">
+    <row r="57" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="95">
         <v>51</v>
       </c>
       <c r="B57" s="135"/>
       <c r="C57" s="136"/>
       <c r="D57" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E57" s="16">
         <v>8715</v>
       </c>
       <c r="F57" s="101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="80"/>
     </row>
-    <row r="58" spans="1:8" ht="56.25" customHeight="1">
+    <row r="58" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="95"/>
       <c r="B58" s="137"/>
       <c r="C58" s="138"/>
       <c r="D58" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E58" s="105">
         <v>704</v>
@@ -6417,36 +6417,36 @@
       <c r="G58" s="85"/>
       <c r="H58" s="80"/>
     </row>
-    <row r="59" spans="1:8" ht="56.25" customHeight="1">
+    <row r="59" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="95">
         <v>52</v>
       </c>
       <c r="B59" s="128" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="D59" s="37" t="s">
         <v>316</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>317</v>
       </c>
       <c r="E59" s="16">
         <v>5000</v>
       </c>
       <c r="F59" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G59" s="80"/>
       <c r="H59" s="80"/>
     </row>
-    <row r="60" spans="1:8" ht="56.25" customHeight="1">
+    <row r="60" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="95">
         <v>53</v>
       </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E60" s="16">
         <v>4000</v>
@@ -6457,14 +6457,14 @@
       <c r="G60" s="80"/>
       <c r="H60" s="80"/>
     </row>
-    <row r="61" spans="1:8" ht="56.25" customHeight="1">
+    <row r="61" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="95">
         <v>54</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="132"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E61" s="16">
         <v>2500</v>
@@ -6475,14 +6475,14 @@
       <c r="G61" s="80"/>
       <c r="H61" s="80"/>
     </row>
-    <row r="62" spans="1:8" ht="56.25" customHeight="1">
+    <row r="62" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="95">
         <v>55</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="132"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E62" s="16">
         <v>3150</v>
@@ -6493,14 +6493,14 @@
       <c r="G62" s="85"/>
       <c r="H62" s="80"/>
     </row>
-    <row r="63" spans="1:8" ht="56.25" customHeight="1">
+    <row r="63" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="95">
         <v>56</v>
       </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="129"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E63" s="16">
         <v>1000</v>
@@ -6511,16 +6511,16 @@
       <c r="G63" s="80"/>
       <c r="H63" s="80"/>
     </row>
-    <row r="64" spans="1:8" ht="56.25" customHeight="1">
+    <row r="64" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="95">
         <v>57</v>
       </c>
-      <c r="B64" s="132"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="128" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>323</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>324</v>
       </c>
       <c r="E64" s="16">
         <v>8000</v>
@@ -6531,50 +6531,50 @@
       <c r="G64" s="85"/>
       <c r="H64" s="80"/>
     </row>
-    <row r="65" spans="1:10" ht="56.25" customHeight="1">
+    <row r="65" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="95">
         <v>58</v>
       </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="129"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="130"/>
       <c r="D65" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E65" s="16">
         <v>1703</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G65" s="85"/>
       <c r="H65" s="80"/>
     </row>
-    <row r="66" spans="1:10" ht="56.25" customHeight="1">
+    <row r="66" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="95">
         <v>59</v>
       </c>
-      <c r="B66" s="132"/>
+      <c r="B66" s="129"/>
       <c r="C66" s="128" t="s">
+        <v>325</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>326</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>327</v>
       </c>
       <c r="E66" s="39">
         <v>250</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G66" s="85"/>
       <c r="H66" s="80"/>
     </row>
-    <row r="67" spans="1:10" ht="56.25" customHeight="1">
+    <row r="67" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="95"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="129"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E67" s="105">
         <v>2000</v>
@@ -6593,56 +6593,56 @@
         <v>105358</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="56.25" customHeight="1">
+    <row r="68" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="95">
         <v>64</v>
       </c>
-      <c r="B68" s="130" t="s">
+      <c r="B68" s="131" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" s="132"/>
+      <c r="D68" s="37" t="s">
         <v>333</v>
-      </c>
-      <c r="C68" s="131"/>
-      <c r="D68" s="37" t="s">
-        <v>334</v>
       </c>
       <c r="E68" s="104">
         <v>7796</v>
       </c>
       <c r="F68" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
     </row>
-    <row r="69" spans="1:10" ht="56.25" customHeight="1">
+    <row r="69" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="95">
         <v>61</v>
       </c>
       <c r="B69" s="128" t="s">
+        <v>328</v>
+      </c>
+      <c r="C69" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="D69" s="37" t="s">
         <v>330</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>331</v>
       </c>
       <c r="E69" s="16">
         <v>4000</v>
       </c>
       <c r="F69" s="101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G69" s="85"/>
       <c r="H69" s="80"/>
     </row>
-    <row r="70" spans="1:10" ht="56.25" customHeight="1">
+    <row r="70" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="95">
         <v>62</v>
       </c>
-      <c r="B70" s="129"/>
-      <c r="C70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
       <c r="D70" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E70" s="16">
         <v>2500</v>
@@ -6653,1508 +6653,1508 @@
       <c r="G70" s="80"/>
       <c r="H70" s="80"/>
     </row>
-    <row r="71" spans="1:10" ht="56.25" customHeight="1">
+    <row r="71" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="88"/>
     </row>
-    <row r="72" spans="1:10" ht="56.25" customHeight="1">
+    <row r="72" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="88"/>
     </row>
-    <row r="73" spans="1:10" ht="56.25" customHeight="1">
+    <row r="73" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="88"/>
     </row>
-    <row r="74" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="75" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="76" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="77" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="78" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="79" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="80" spans="1:10" ht="56.25" customHeight="1"/>
-    <row r="81" spans="5:8" ht="56.25" customHeight="1"/>
-    <row r="82" spans="5:8" ht="56.25" customHeight="1"/>
-    <row r="83" spans="5:8" ht="56.25" customHeight="1"/>
-    <row r="84" spans="5:8" ht="56.25" customHeight="1">
+    <row r="74" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E84" s="81"/>
       <c r="F84" s="93"/>
       <c r="G84" s="81"/>
       <c r="H84" s="81"/>
     </row>
-    <row r="85" spans="5:8" ht="56.25" customHeight="1">
+    <row r="85" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E85" s="81"/>
       <c r="F85" s="93"/>
       <c r="G85" s="81"/>
       <c r="H85" s="81"/>
     </row>
-    <row r="86" spans="5:8" ht="56.25" customHeight="1">
+    <row r="86" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E86" s="81"/>
       <c r="F86" s="93"/>
       <c r="G86" s="81"/>
       <c r="H86" s="81"/>
     </row>
-    <row r="87" spans="5:8" ht="56.25" customHeight="1">
+    <row r="87" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E87" s="81"/>
       <c r="F87" s="93"/>
       <c r="G87" s="81"/>
       <c r="H87" s="81"/>
     </row>
-    <row r="88" spans="5:8" ht="56.25" customHeight="1">
+    <row r="88" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E88" s="81"/>
       <c r="F88" s="93"/>
       <c r="G88" s="81"/>
       <c r="H88" s="81"/>
     </row>
-    <row r="89" spans="5:8" ht="56.25" customHeight="1">
+    <row r="89" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E89" s="81"/>
       <c r="F89" s="93"/>
       <c r="G89" s="81"/>
       <c r="H89" s="81"/>
     </row>
-    <row r="90" spans="5:8" ht="56.25" customHeight="1">
+    <row r="90" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E90" s="81"/>
       <c r="F90" s="93"/>
       <c r="G90" s="81"/>
       <c r="H90" s="81"/>
     </row>
-    <row r="91" spans="5:8" ht="56.25" customHeight="1">
+    <row r="91" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E91" s="81"/>
       <c r="F91" s="93"/>
       <c r="G91" s="81"/>
       <c r="H91" s="81"/>
     </row>
-    <row r="92" spans="5:8" ht="56.25" customHeight="1">
+    <row r="92" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E92" s="81"/>
       <c r="F92" s="93"/>
       <c r="G92" s="81"/>
       <c r="H92" s="81"/>
     </row>
-    <row r="93" spans="5:8" ht="56.25" customHeight="1">
+    <row r="93" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E93" s="81"/>
       <c r="F93" s="93"/>
       <c r="G93" s="81"/>
       <c r="H93" s="81"/>
     </row>
-    <row r="94" spans="5:8" ht="56.25" customHeight="1">
+    <row r="94" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E94" s="81"/>
       <c r="F94" s="93"/>
       <c r="G94" s="81"/>
       <c r="H94" s="81"/>
     </row>
-    <row r="95" spans="5:8" ht="56.25" customHeight="1">
+    <row r="95" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E95" s="81"/>
       <c r="F95" s="93"/>
       <c r="G95" s="81"/>
       <c r="H95" s="81"/>
     </row>
-    <row r="96" spans="5:8" ht="56.25" customHeight="1">
+    <row r="96" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E96" s="81"/>
       <c r="F96" s="93"/>
       <c r="G96" s="81"/>
       <c r="H96" s="81"/>
     </row>
-    <row r="97" spans="5:8" ht="56.25" customHeight="1">
+    <row r="97" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E97" s="81"/>
       <c r="F97" s="93"/>
       <c r="G97" s="81"/>
       <c r="H97" s="81"/>
     </row>
-    <row r="98" spans="5:8" ht="56.25" customHeight="1">
+    <row r="98" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E98" s="81"/>
       <c r="F98" s="93"/>
       <c r="G98" s="81"/>
       <c r="H98" s="81"/>
     </row>
-    <row r="99" spans="5:8" ht="56.25" customHeight="1">
+    <row r="99" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E99" s="81"/>
       <c r="F99" s="93"/>
       <c r="G99" s="81"/>
       <c r="H99" s="81"/>
     </row>
-    <row r="100" spans="5:8" ht="56.25" customHeight="1">
+    <row r="100" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E100" s="81"/>
       <c r="F100" s="93"/>
       <c r="G100" s="81"/>
       <c r="H100" s="81"/>
     </row>
-    <row r="101" spans="5:8" ht="56.25" customHeight="1">
+    <row r="101" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E101" s="81"/>
       <c r="F101" s="93"/>
       <c r="G101" s="81"/>
       <c r="H101" s="81"/>
     </row>
-    <row r="102" spans="5:8" ht="56.25" customHeight="1">
+    <row r="102" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E102" s="81"/>
       <c r="F102" s="93"/>
       <c r="G102" s="81"/>
       <c r="H102" s="81"/>
     </row>
-    <row r="103" spans="5:8" ht="56.25" customHeight="1">
+    <row r="103" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E103" s="81"/>
       <c r="F103" s="93"/>
       <c r="G103" s="81"/>
       <c r="H103" s="81"/>
     </row>
-    <row r="104" spans="5:8" ht="56.25" customHeight="1">
+    <row r="104" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E104" s="81"/>
       <c r="F104" s="93"/>
       <c r="G104" s="81"/>
       <c r="H104" s="81"/>
     </row>
-    <row r="105" spans="5:8" ht="56.25" customHeight="1">
+    <row r="105" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E105" s="81"/>
       <c r="F105" s="93"/>
       <c r="G105" s="81"/>
       <c r="H105" s="81"/>
     </row>
-    <row r="106" spans="5:8" ht="56.25" customHeight="1">
+    <row r="106" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E106" s="81"/>
       <c r="F106" s="93"/>
       <c r="G106" s="81"/>
       <c r="H106" s="81"/>
     </row>
-    <row r="107" spans="5:8" ht="56.25" customHeight="1">
+    <row r="107" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="81"/>
       <c r="F107" s="93"/>
       <c r="G107" s="81"/>
       <c r="H107" s="81"/>
     </row>
-    <row r="108" spans="5:8" ht="56.25" customHeight="1">
+    <row r="108" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E108" s="81"/>
       <c r="F108" s="93"/>
       <c r="G108" s="81"/>
       <c r="H108" s="81"/>
     </row>
-    <row r="109" spans="5:8" ht="56.25" customHeight="1">
+    <row r="109" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E109" s="81"/>
       <c r="F109" s="93"/>
       <c r="G109" s="81"/>
       <c r="H109" s="81"/>
     </row>
-    <row r="110" spans="5:8" ht="56.25" customHeight="1">
+    <row r="110" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E110" s="81"/>
       <c r="F110" s="93"/>
       <c r="G110" s="81"/>
       <c r="H110" s="81"/>
     </row>
-    <row r="111" spans="5:8" ht="56.25" customHeight="1">
+    <row r="111" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E111" s="81"/>
       <c r="F111" s="93"/>
       <c r="G111" s="81"/>
       <c r="H111" s="81"/>
     </row>
-    <row r="112" spans="5:8" ht="56.25" customHeight="1">
+    <row r="112" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E112" s="81"/>
       <c r="F112" s="93"/>
       <c r="G112" s="81"/>
       <c r="H112" s="81"/>
     </row>
-    <row r="113" spans="5:8" ht="56.25" customHeight="1">
+    <row r="113" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E113" s="81"/>
       <c r="F113" s="93"/>
       <c r="G113" s="81"/>
       <c r="H113" s="81"/>
     </row>
-    <row r="114" spans="5:8" ht="56.25" customHeight="1">
+    <row r="114" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E114" s="81"/>
       <c r="F114" s="93"/>
       <c r="G114" s="81"/>
       <c r="H114" s="81"/>
     </row>
-    <row r="115" spans="5:8" ht="56.25" customHeight="1">
+    <row r="115" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E115" s="81"/>
       <c r="F115" s="93"/>
       <c r="G115" s="81"/>
       <c r="H115" s="81"/>
     </row>
-    <row r="116" spans="5:8" ht="56.25" customHeight="1">
+    <row r="116" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E116" s="81"/>
       <c r="F116" s="93"/>
       <c r="G116" s="81"/>
       <c r="H116" s="81"/>
     </row>
-    <row r="117" spans="5:8" ht="56.25" customHeight="1">
+    <row r="117" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="81"/>
       <c r="F117" s="93"/>
       <c r="G117" s="81"/>
       <c r="H117" s="81"/>
     </row>
-    <row r="118" spans="5:8" ht="56.25" customHeight="1">
+    <row r="118" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="81"/>
       <c r="F118" s="93"/>
       <c r="G118" s="81"/>
       <c r="H118" s="81"/>
     </row>
-    <row r="119" spans="5:8" ht="56.25" customHeight="1">
+    <row r="119" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="81"/>
       <c r="F119" s="93"/>
       <c r="G119" s="81"/>
       <c r="H119" s="81"/>
     </row>
-    <row r="120" spans="5:8" ht="56.25" customHeight="1">
+    <row r="120" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="81"/>
       <c r="F120" s="93"/>
       <c r="G120" s="81"/>
       <c r="H120" s="81"/>
     </row>
-    <row r="121" spans="5:8" ht="56.25" customHeight="1">
+    <row r="121" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="81"/>
       <c r="F121" s="93"/>
       <c r="G121" s="81"/>
       <c r="H121" s="81"/>
     </row>
-    <row r="122" spans="5:8" ht="56.25" customHeight="1">
+    <row r="122" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="81"/>
       <c r="F122" s="93"/>
       <c r="G122" s="81"/>
       <c r="H122" s="81"/>
     </row>
-    <row r="123" spans="5:8" ht="56.25" customHeight="1">
+    <row r="123" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="81"/>
       <c r="F123" s="93"/>
       <c r="G123" s="81"/>
       <c r="H123" s="81"/>
     </row>
-    <row r="124" spans="5:8" ht="56.25" customHeight="1">
+    <row r="124" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="81"/>
       <c r="F124" s="93"/>
       <c r="G124" s="81"/>
       <c r="H124" s="81"/>
     </row>
-    <row r="125" spans="5:8" ht="56.25" customHeight="1">
+    <row r="125" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="81"/>
       <c r="F125" s="93"/>
       <c r="G125" s="81"/>
       <c r="H125" s="81"/>
     </row>
-    <row r="126" spans="5:8" ht="56.25" customHeight="1">
+    <row r="126" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="81"/>
       <c r="F126" s="93"/>
       <c r="G126" s="81"/>
       <c r="H126" s="81"/>
     </row>
-    <row r="127" spans="5:8" ht="56.25" customHeight="1">
+    <row r="127" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="81"/>
       <c r="F127" s="93"/>
       <c r="G127" s="81"/>
       <c r="H127" s="81"/>
     </row>
-    <row r="128" spans="5:8" ht="56.25" customHeight="1">
+    <row r="128" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="81"/>
       <c r="F128" s="93"/>
       <c r="G128" s="81"/>
       <c r="H128" s="81"/>
     </row>
-    <row r="129" spans="5:8" ht="56.25" customHeight="1">
+    <row r="129" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="81"/>
       <c r="F129" s="93"/>
       <c r="G129" s="81"/>
       <c r="H129" s="81"/>
     </row>
-    <row r="130" spans="5:8" ht="56.25" customHeight="1">
+    <row r="130" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E130" s="81"/>
       <c r="F130" s="93"/>
       <c r="G130" s="81"/>
       <c r="H130" s="81"/>
     </row>
-    <row r="131" spans="5:8" ht="56.25" customHeight="1">
+    <row r="131" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E131" s="81"/>
       <c r="F131" s="93"/>
       <c r="G131" s="81"/>
       <c r="H131" s="81"/>
     </row>
-    <row r="132" spans="5:8" ht="56.25" customHeight="1">
+    <row r="132" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E132" s="81"/>
       <c r="F132" s="93"/>
       <c r="G132" s="81"/>
       <c r="H132" s="81"/>
     </row>
-    <row r="133" spans="5:8" ht="56.25" customHeight="1">
+    <row r="133" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E133" s="81"/>
       <c r="F133" s="93"/>
       <c r="G133" s="81"/>
       <c r="H133" s="81"/>
     </row>
-    <row r="134" spans="5:8" ht="56.25" customHeight="1">
+    <row r="134" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E134" s="81"/>
       <c r="F134" s="93"/>
       <c r="G134" s="81"/>
       <c r="H134" s="81"/>
     </row>
-    <row r="135" spans="5:8" ht="56.25" customHeight="1">
+    <row r="135" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E135" s="81"/>
       <c r="F135" s="93"/>
       <c r="G135" s="81"/>
       <c r="H135" s="81"/>
     </row>
-    <row r="136" spans="5:8" ht="56.25" customHeight="1">
+    <row r="136" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E136" s="81"/>
       <c r="F136" s="93"/>
       <c r="G136" s="81"/>
       <c r="H136" s="81"/>
     </row>
-    <row r="137" spans="5:8" ht="56.25" customHeight="1">
+    <row r="137" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E137" s="81"/>
       <c r="F137" s="93"/>
       <c r="G137" s="81"/>
       <c r="H137" s="81"/>
     </row>
-    <row r="138" spans="5:8" ht="56.25" customHeight="1">
+    <row r="138" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E138" s="81"/>
       <c r="F138" s="93"/>
       <c r="G138" s="81"/>
       <c r="H138" s="81"/>
     </row>
-    <row r="139" spans="5:8" ht="56.25" customHeight="1">
+    <row r="139" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E139" s="81"/>
       <c r="F139" s="93"/>
       <c r="G139" s="81"/>
       <c r="H139" s="81"/>
     </row>
-    <row r="140" spans="5:8" ht="56.25" customHeight="1">
+    <row r="140" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E140" s="81"/>
       <c r="F140" s="93"/>
       <c r="G140" s="81"/>
       <c r="H140" s="81"/>
     </row>
-    <row r="141" spans="5:8" ht="56.25" customHeight="1">
+    <row r="141" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E141" s="81"/>
       <c r="F141" s="93"/>
       <c r="G141" s="81"/>
       <c r="H141" s="81"/>
     </row>
-    <row r="142" spans="5:8" ht="56.25" customHeight="1">
+    <row r="142" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E142" s="81"/>
       <c r="F142" s="93"/>
       <c r="G142" s="81"/>
       <c r="H142" s="81"/>
     </row>
-    <row r="143" spans="5:8" ht="56.25" customHeight="1">
+    <row r="143" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E143" s="81"/>
       <c r="F143" s="93"/>
       <c r="G143" s="81"/>
       <c r="H143" s="81"/>
     </row>
-    <row r="144" spans="5:8" ht="56.25" customHeight="1">
+    <row r="144" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E144" s="81"/>
       <c r="F144" s="93"/>
       <c r="G144" s="81"/>
       <c r="H144" s="81"/>
     </row>
-    <row r="145" spans="5:8" ht="56.25" customHeight="1">
+    <row r="145" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E145" s="81"/>
       <c r="F145" s="93"/>
       <c r="G145" s="81"/>
       <c r="H145" s="81"/>
     </row>
-    <row r="146" spans="5:8" ht="56.25" customHeight="1">
+    <row r="146" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E146" s="81"/>
       <c r="F146" s="93"/>
       <c r="G146" s="81"/>
       <c r="H146" s="81"/>
     </row>
-    <row r="147" spans="5:8" ht="56.25" customHeight="1">
+    <row r="147" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E147" s="81"/>
       <c r="F147" s="93"/>
       <c r="G147" s="81"/>
       <c r="H147" s="81"/>
     </row>
-    <row r="148" spans="5:8" ht="56.25" customHeight="1">
+    <row r="148" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E148" s="81"/>
       <c r="F148" s="93"/>
       <c r="G148" s="81"/>
       <c r="H148" s="81"/>
     </row>
-    <row r="149" spans="5:8" ht="56.25" customHeight="1">
+    <row r="149" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E149" s="81"/>
       <c r="F149" s="93"/>
       <c r="G149" s="81"/>
       <c r="H149" s="81"/>
     </row>
-    <row r="150" spans="5:8" ht="56.25" customHeight="1">
+    <row r="150" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="81"/>
       <c r="F150" s="93"/>
       <c r="G150" s="81"/>
       <c r="H150" s="81"/>
     </row>
-    <row r="151" spans="5:8" ht="56.25" customHeight="1">
+    <row r="151" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E151" s="81"/>
       <c r="F151" s="93"/>
       <c r="G151" s="81"/>
       <c r="H151" s="81"/>
     </row>
-    <row r="152" spans="5:8" ht="56.25" customHeight="1">
+    <row r="152" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E152" s="81"/>
       <c r="F152" s="93"/>
       <c r="G152" s="81"/>
       <c r="H152" s="81"/>
     </row>
-    <row r="153" spans="5:8" ht="56.25" customHeight="1">
+    <row r="153" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E153" s="81"/>
       <c r="F153" s="93"/>
       <c r="G153" s="81"/>
       <c r="H153" s="81"/>
     </row>
-    <row r="154" spans="5:8" ht="56.25" customHeight="1">
+    <row r="154" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E154" s="81"/>
       <c r="F154" s="93"/>
       <c r="G154" s="81"/>
       <c r="H154" s="81"/>
     </row>
-    <row r="155" spans="5:8" ht="56.25" customHeight="1">
+    <row r="155" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E155" s="81"/>
       <c r="F155" s="93"/>
       <c r="G155" s="81"/>
       <c r="H155" s="81"/>
     </row>
-    <row r="156" spans="5:8" ht="56.25" customHeight="1">
+    <row r="156" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E156" s="81"/>
       <c r="F156" s="93"/>
       <c r="G156" s="81"/>
       <c r="H156" s="81"/>
     </row>
-    <row r="157" spans="5:8" ht="56.25" customHeight="1">
+    <row r="157" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E157" s="81"/>
       <c r="F157" s="93"/>
       <c r="G157" s="81"/>
       <c r="H157" s="81"/>
     </row>
-    <row r="158" spans="5:8" ht="56.25" customHeight="1">
+    <row r="158" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E158" s="81"/>
       <c r="F158" s="93"/>
       <c r="G158" s="81"/>
       <c r="H158" s="81"/>
     </row>
-    <row r="159" spans="5:8" ht="56.25" customHeight="1">
+    <row r="159" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E159" s="81"/>
       <c r="F159" s="93"/>
       <c r="G159" s="81"/>
       <c r="H159" s="81"/>
     </row>
-    <row r="160" spans="5:8" ht="56.25" customHeight="1">
+    <row r="160" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E160" s="81"/>
       <c r="F160" s="93"/>
       <c r="G160" s="81"/>
       <c r="H160" s="81"/>
     </row>
-    <row r="161" spans="5:8" ht="56.25" customHeight="1">
+    <row r="161" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E161" s="81"/>
       <c r="F161" s="93"/>
       <c r="G161" s="81"/>
       <c r="H161" s="81"/>
     </row>
-    <row r="162" spans="5:8" ht="56.25" customHeight="1">
+    <row r="162" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E162" s="81"/>
       <c r="F162" s="93"/>
       <c r="G162" s="81"/>
       <c r="H162" s="81"/>
     </row>
-    <row r="163" spans="5:8" ht="56.25" customHeight="1">
+    <row r="163" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E163" s="81"/>
       <c r="F163" s="93"/>
       <c r="G163" s="81"/>
       <c r="H163" s="81"/>
     </row>
-    <row r="164" spans="5:8" ht="56.25" customHeight="1">
+    <row r="164" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E164" s="81"/>
       <c r="F164" s="93"/>
       <c r="G164" s="81"/>
       <c r="H164" s="81"/>
     </row>
-    <row r="165" spans="5:8" ht="56.25" customHeight="1">
+    <row r="165" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E165" s="81"/>
       <c r="F165" s="93"/>
       <c r="G165" s="81"/>
       <c r="H165" s="81"/>
     </row>
-    <row r="166" spans="5:8" ht="56.25" customHeight="1">
+    <row r="166" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E166" s="81"/>
       <c r="F166" s="93"/>
       <c r="G166" s="81"/>
       <c r="H166" s="81"/>
     </row>
-    <row r="167" spans="5:8" ht="56.25" customHeight="1">
+    <row r="167" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E167" s="81"/>
       <c r="F167" s="93"/>
       <c r="G167" s="81"/>
       <c r="H167" s="81"/>
     </row>
-    <row r="168" spans="5:8" ht="56.25" customHeight="1">
+    <row r="168" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E168" s="81"/>
       <c r="F168" s="93"/>
       <c r="G168" s="81"/>
       <c r="H168" s="81"/>
     </row>
-    <row r="169" spans="5:8" ht="56.25" customHeight="1">
+    <row r="169" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E169" s="81"/>
       <c r="F169" s="93"/>
       <c r="G169" s="81"/>
       <c r="H169" s="81"/>
     </row>
-    <row r="170" spans="5:8" ht="56.25" customHeight="1">
+    <row r="170" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E170" s="81"/>
       <c r="F170" s="93"/>
       <c r="G170" s="81"/>
       <c r="H170" s="81"/>
     </row>
-    <row r="171" spans="5:8" ht="56.25" customHeight="1">
+    <row r="171" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E171" s="81"/>
       <c r="F171" s="93"/>
       <c r="G171" s="81"/>
       <c r="H171" s="81"/>
     </row>
-    <row r="172" spans="5:8" ht="56.25" customHeight="1">
+    <row r="172" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E172" s="81"/>
       <c r="F172" s="93"/>
       <c r="G172" s="81"/>
       <c r="H172" s="81"/>
     </row>
-    <row r="173" spans="5:8" ht="56.25" customHeight="1">
+    <row r="173" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E173" s="81"/>
       <c r="F173" s="93"/>
       <c r="G173" s="81"/>
       <c r="H173" s="81"/>
     </row>
-    <row r="174" spans="5:8" ht="56.25" customHeight="1">
+    <row r="174" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E174" s="81"/>
       <c r="F174" s="93"/>
       <c r="G174" s="81"/>
       <c r="H174" s="81"/>
     </row>
-    <row r="175" spans="5:8" ht="56.25" customHeight="1">
+    <row r="175" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E175" s="81"/>
       <c r="F175" s="93"/>
       <c r="G175" s="81"/>
       <c r="H175" s="81"/>
     </row>
-    <row r="176" spans="5:8" ht="56.25" customHeight="1">
+    <row r="176" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E176" s="81"/>
       <c r="F176" s="93"/>
       <c r="G176" s="81"/>
       <c r="H176" s="81"/>
     </row>
-    <row r="177" spans="5:8" ht="56.25" customHeight="1">
+    <row r="177" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E177" s="81"/>
       <c r="F177" s="93"/>
       <c r="G177" s="81"/>
       <c r="H177" s="81"/>
     </row>
-    <row r="178" spans="5:8" ht="56.25" customHeight="1">
+    <row r="178" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E178" s="81"/>
       <c r="F178" s="93"/>
       <c r="G178" s="81"/>
       <c r="H178" s="81"/>
     </row>
-    <row r="179" spans="5:8" ht="56.25" customHeight="1">
+    <row r="179" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E179" s="81"/>
       <c r="F179" s="93"/>
       <c r="G179" s="81"/>
       <c r="H179" s="81"/>
     </row>
-    <row r="180" spans="5:8" ht="56.25" customHeight="1">
+    <row r="180" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E180" s="81"/>
       <c r="F180" s="93"/>
       <c r="G180" s="81"/>
       <c r="H180" s="81"/>
     </row>
-    <row r="181" spans="5:8" ht="56.25" customHeight="1">
+    <row r="181" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E181" s="81"/>
       <c r="F181" s="93"/>
       <c r="G181" s="81"/>
       <c r="H181" s="81"/>
     </row>
-    <row r="182" spans="5:8" ht="56.25" customHeight="1">
+    <row r="182" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E182" s="81"/>
       <c r="F182" s="93"/>
       <c r="G182" s="81"/>
       <c r="H182" s="81"/>
     </row>
-    <row r="183" spans="5:8" ht="56.25" customHeight="1">
+    <row r="183" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E183" s="81"/>
       <c r="F183" s="93"/>
       <c r="G183" s="81"/>
       <c r="H183" s="81"/>
     </row>
-    <row r="184" spans="5:8" ht="56.25" customHeight="1">
+    <row r="184" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E184" s="81"/>
       <c r="F184" s="93"/>
       <c r="G184" s="81"/>
       <c r="H184" s="81"/>
     </row>
-    <row r="185" spans="5:8" ht="56.25" customHeight="1">
+    <row r="185" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E185" s="81"/>
       <c r="F185" s="93"/>
       <c r="G185" s="81"/>
       <c r="H185" s="81"/>
     </row>
-    <row r="186" spans="5:8" ht="56.25" customHeight="1">
+    <row r="186" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E186" s="81"/>
       <c r="F186" s="93"/>
       <c r="G186" s="81"/>
       <c r="H186" s="81"/>
     </row>
-    <row r="187" spans="5:8" ht="56.25" customHeight="1">
+    <row r="187" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E187" s="81"/>
       <c r="F187" s="93"/>
       <c r="G187" s="81"/>
       <c r="H187" s="81"/>
     </row>
-    <row r="188" spans="5:8" ht="56.25" customHeight="1">
+    <row r="188" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="81"/>
       <c r="F188" s="93"/>
       <c r="G188" s="81"/>
       <c r="H188" s="81"/>
     </row>
-    <row r="189" spans="5:8" ht="56.25" customHeight="1">
+    <row r="189" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="81"/>
       <c r="F189" s="93"/>
       <c r="G189" s="81"/>
       <c r="H189" s="81"/>
     </row>
-    <row r="190" spans="5:8" ht="56.25" customHeight="1">
+    <row r="190" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="81"/>
       <c r="F190" s="93"/>
       <c r="G190" s="81"/>
       <c r="H190" s="81"/>
     </row>
-    <row r="191" spans="5:8" ht="56.25" customHeight="1">
+    <row r="191" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="81"/>
       <c r="F191" s="93"/>
       <c r="G191" s="81"/>
       <c r="H191" s="81"/>
     </row>
-    <row r="192" spans="5:8" ht="56.25" customHeight="1">
+    <row r="192" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="81"/>
       <c r="F192" s="93"/>
       <c r="G192" s="81"/>
       <c r="H192" s="81"/>
     </row>
-    <row r="193" spans="5:8" ht="56.25" customHeight="1">
+    <row r="193" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="81"/>
       <c r="F193" s="93"/>
       <c r="G193" s="81"/>
       <c r="H193" s="81"/>
     </row>
-    <row r="194" spans="5:8" ht="56.25" customHeight="1">
+    <row r="194" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="81"/>
       <c r="F194" s="93"/>
       <c r="G194" s="81"/>
       <c r="H194" s="81"/>
     </row>
-    <row r="195" spans="5:8" ht="56.25" customHeight="1">
+    <row r="195" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="81"/>
       <c r="F195" s="93"/>
       <c r="G195" s="81"/>
       <c r="H195" s="81"/>
     </row>
-    <row r="196" spans="5:8" ht="56.25" customHeight="1">
+    <row r="196" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="81"/>
       <c r="F196" s="93"/>
       <c r="G196" s="81"/>
       <c r="H196" s="81"/>
     </row>
-    <row r="197" spans="5:8" ht="56.25" customHeight="1">
+    <row r="197" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="81"/>
       <c r="F197" s="93"/>
       <c r="G197" s="81"/>
       <c r="H197" s="81"/>
     </row>
-    <row r="198" spans="5:8" ht="56.25" customHeight="1">
+    <row r="198" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="81"/>
       <c r="F198" s="93"/>
       <c r="G198" s="81"/>
       <c r="H198" s="81"/>
     </row>
-    <row r="199" spans="5:8" ht="56.25" customHeight="1">
+    <row r="199" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="81"/>
       <c r="F199" s="93"/>
       <c r="G199" s="81"/>
       <c r="H199" s="81"/>
     </row>
-    <row r="200" spans="5:8" ht="56.25" customHeight="1">
+    <row r="200" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="81"/>
       <c r="F200" s="93"/>
       <c r="G200" s="81"/>
       <c r="H200" s="81"/>
     </row>
-    <row r="201" spans="5:8" ht="56.25" customHeight="1">
+    <row r="201" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="81"/>
       <c r="F201" s="93"/>
       <c r="G201" s="81"/>
       <c r="H201" s="81"/>
     </row>
-    <row r="202" spans="5:8" ht="56.25" customHeight="1">
+    <row r="202" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="81"/>
       <c r="F202" s="93"/>
       <c r="G202" s="81"/>
       <c r="H202" s="81"/>
     </row>
-    <row r="203" spans="5:8" ht="56.25" customHeight="1">
+    <row r="203" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="81"/>
       <c r="F203" s="93"/>
       <c r="G203" s="81"/>
       <c r="H203" s="81"/>
     </row>
-    <row r="204" spans="5:8" ht="56.25" customHeight="1">
+    <row r="204" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="81"/>
       <c r="F204" s="93"/>
       <c r="G204" s="81"/>
       <c r="H204" s="81"/>
     </row>
-    <row r="205" spans="5:8" ht="56.25" customHeight="1">
+    <row r="205" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="81"/>
       <c r="F205" s="93"/>
       <c r="G205" s="81"/>
       <c r="H205" s="81"/>
     </row>
-    <row r="206" spans="5:8" ht="56.25" customHeight="1">
+    <row r="206" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="81"/>
       <c r="F206" s="93"/>
       <c r="G206" s="81"/>
       <c r="H206" s="81"/>
     </row>
-    <row r="207" spans="5:8" ht="56.25" customHeight="1">
+    <row r="207" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="81"/>
       <c r="F207" s="93"/>
       <c r="G207" s="81"/>
       <c r="H207" s="81"/>
     </row>
-    <row r="208" spans="5:8" ht="56.25" customHeight="1">
+    <row r="208" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="81"/>
       <c r="F208" s="93"/>
       <c r="G208" s="81"/>
       <c r="H208" s="81"/>
     </row>
-    <row r="209" spans="5:8" ht="56.25" customHeight="1">
+    <row r="209" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="81"/>
       <c r="F209" s="93"/>
       <c r="G209" s="81"/>
       <c r="H209" s="81"/>
     </row>
-    <row r="210" spans="5:8" ht="56.25" customHeight="1">
+    <row r="210" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="81"/>
       <c r="F210" s="93"/>
       <c r="G210" s="81"/>
       <c r="H210" s="81"/>
     </row>
-    <row r="211" spans="5:8" ht="56.25" customHeight="1">
+    <row r="211" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="81"/>
       <c r="F211" s="93"/>
       <c r="G211" s="81"/>
       <c r="H211" s="81"/>
     </row>
-    <row r="212" spans="5:8" ht="56.25" customHeight="1">
+    <row r="212" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="81"/>
       <c r="F212" s="93"/>
       <c r="G212" s="81"/>
       <c r="H212" s="81"/>
     </row>
-    <row r="213" spans="5:8" ht="56.25" customHeight="1">
+    <row r="213" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="81"/>
       <c r="F213" s="93"/>
       <c r="G213" s="81"/>
       <c r="H213" s="81"/>
     </row>
-    <row r="214" spans="5:8" ht="56.25" customHeight="1">
+    <row r="214" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="81"/>
       <c r="F214" s="93"/>
       <c r="G214" s="81"/>
       <c r="H214" s="81"/>
     </row>
-    <row r="215" spans="5:8" ht="56.25" customHeight="1">
+    <row r="215" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="81"/>
       <c r="F215" s="93"/>
       <c r="G215" s="81"/>
       <c r="H215" s="81"/>
     </row>
-    <row r="216" spans="5:8" ht="56.25" customHeight="1">
+    <row r="216" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="81"/>
       <c r="F216" s="93"/>
       <c r="G216" s="81"/>
       <c r="H216" s="81"/>
     </row>
-    <row r="217" spans="5:8" ht="56.25" customHeight="1">
+    <row r="217" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="81"/>
       <c r="F217" s="93"/>
       <c r="G217" s="81"/>
       <c r="H217" s="81"/>
     </row>
-    <row r="218" spans="5:8" ht="56.25" customHeight="1">
+    <row r="218" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="81"/>
       <c r="F218" s="93"/>
       <c r="G218" s="81"/>
       <c r="H218" s="81"/>
     </row>
-    <row r="219" spans="5:8" ht="56.25" customHeight="1">
+    <row r="219" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="81"/>
       <c r="F219" s="93"/>
       <c r="G219" s="81"/>
       <c r="H219" s="81"/>
     </row>
-    <row r="220" spans="5:8" ht="56.25" customHeight="1">
+    <row r="220" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="81"/>
       <c r="F220" s="93"/>
       <c r="G220" s="81"/>
       <c r="H220" s="81"/>
     </row>
-    <row r="221" spans="5:8" ht="56.25" customHeight="1">
+    <row r="221" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="81"/>
       <c r="F221" s="93"/>
       <c r="G221" s="81"/>
       <c r="H221" s="81"/>
     </row>
-    <row r="222" spans="5:8" ht="56.25" customHeight="1">
+    <row r="222" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="81"/>
       <c r="F222" s="93"/>
       <c r="G222" s="81"/>
       <c r="H222" s="81"/>
     </row>
-    <row r="223" spans="5:8" ht="56.25" customHeight="1">
+    <row r="223" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="81"/>
       <c r="F223" s="93"/>
       <c r="G223" s="81"/>
       <c r="H223" s="81"/>
     </row>
-    <row r="224" spans="5:8" ht="56.25" customHeight="1">
+    <row r="224" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="81"/>
       <c r="F224" s="93"/>
       <c r="G224" s="81"/>
       <c r="H224" s="81"/>
     </row>
-    <row r="225" spans="5:8" ht="56.25" customHeight="1">
+    <row r="225" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="81"/>
       <c r="F225" s="93"/>
       <c r="G225" s="81"/>
       <c r="H225" s="81"/>
     </row>
-    <row r="226" spans="5:8" ht="56.25" customHeight="1">
+    <row r="226" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="81"/>
       <c r="F226" s="93"/>
       <c r="G226" s="81"/>
       <c r="H226" s="81"/>
     </row>
-    <row r="227" spans="5:8" ht="56.25" customHeight="1">
+    <row r="227" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="81"/>
       <c r="F227" s="93"/>
       <c r="G227" s="81"/>
       <c r="H227" s="81"/>
     </row>
-    <row r="228" spans="5:8" ht="56.25" customHeight="1">
+    <row r="228" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="81"/>
       <c r="F228" s="93"/>
       <c r="G228" s="81"/>
       <c r="H228" s="81"/>
     </row>
-    <row r="229" spans="5:8" ht="56.25" customHeight="1">
+    <row r="229" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="81"/>
       <c r="F229" s="93"/>
       <c r="G229" s="81"/>
       <c r="H229" s="81"/>
     </row>
-    <row r="230" spans="5:8" ht="56.25" customHeight="1">
+    <row r="230" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="81"/>
       <c r="F230" s="93"/>
       <c r="G230" s="81"/>
       <c r="H230" s="81"/>
     </row>
-    <row r="231" spans="5:8" ht="56.25" customHeight="1">
+    <row r="231" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="81"/>
       <c r="F231" s="93"/>
       <c r="G231" s="81"/>
       <c r="H231" s="81"/>
     </row>
-    <row r="232" spans="5:8" ht="56.25" customHeight="1">
+    <row r="232" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="81"/>
       <c r="F232" s="93"/>
       <c r="G232" s="81"/>
       <c r="H232" s="81"/>
     </row>
-    <row r="233" spans="5:8" ht="56.25" customHeight="1">
+    <row r="233" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="81"/>
       <c r="F233" s="93"/>
       <c r="G233" s="81"/>
       <c r="H233" s="81"/>
     </row>
-    <row r="234" spans="5:8" ht="56.25" customHeight="1">
+    <row r="234" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="81"/>
       <c r="F234" s="93"/>
       <c r="G234" s="81"/>
       <c r="H234" s="81"/>
     </row>
-    <row r="235" spans="5:8" ht="56.25" customHeight="1">
+    <row r="235" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="81"/>
       <c r="F235" s="93"/>
       <c r="G235" s="81"/>
       <c r="H235" s="81"/>
     </row>
-    <row r="236" spans="5:8" ht="56.25" customHeight="1">
+    <row r="236" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="81"/>
       <c r="F236" s="93"/>
       <c r="G236" s="81"/>
       <c r="H236" s="81"/>
     </row>
-    <row r="237" spans="5:8" ht="56.25" customHeight="1">
+    <row r="237" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="81"/>
       <c r="F237" s="93"/>
       <c r="G237" s="81"/>
       <c r="H237" s="81"/>
     </row>
-    <row r="238" spans="5:8" ht="56.25" customHeight="1">
+    <row r="238" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="81"/>
       <c r="F238" s="93"/>
       <c r="G238" s="81"/>
       <c r="H238" s="81"/>
     </row>
-    <row r="239" spans="5:8" ht="56.25" customHeight="1">
+    <row r="239" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E239" s="81"/>
       <c r="F239" s="93"/>
       <c r="G239" s="81"/>
       <c r="H239" s="81"/>
     </row>
-    <row r="240" spans="5:8" ht="56.25" customHeight="1">
+    <row r="240" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E240" s="81"/>
       <c r="F240" s="93"/>
       <c r="G240" s="81"/>
       <c r="H240" s="81"/>
     </row>
-    <row r="241" spans="5:8" ht="56.25" customHeight="1">
+    <row r="241" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E241" s="81"/>
       <c r="F241" s="93"/>
       <c r="G241" s="81"/>
       <c r="H241" s="81"/>
     </row>
-    <row r="242" spans="5:8" ht="56.25" customHeight="1">
+    <row r="242" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E242" s="81"/>
       <c r="F242" s="93"/>
       <c r="G242" s="81"/>
       <c r="H242" s="81"/>
     </row>
-    <row r="243" spans="5:8" ht="56.25" customHeight="1">
+    <row r="243" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E243" s="81"/>
       <c r="F243" s="93"/>
       <c r="G243" s="81"/>
       <c r="H243" s="81"/>
     </row>
-    <row r="244" spans="5:8" ht="56.25" customHeight="1">
+    <row r="244" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E244" s="81"/>
       <c r="F244" s="93"/>
       <c r="G244" s="81"/>
       <c r="H244" s="81"/>
     </row>
-    <row r="245" spans="5:8" ht="56.25" customHeight="1">
+    <row r="245" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E245" s="81"/>
       <c r="F245" s="93"/>
       <c r="G245" s="81"/>
       <c r="H245" s="81"/>
     </row>
-    <row r="246" spans="5:8" ht="56.25" customHeight="1">
+    <row r="246" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E246" s="81"/>
       <c r="F246" s="93"/>
       <c r="G246" s="81"/>
       <c r="H246" s="81"/>
     </row>
-    <row r="247" spans="5:8" ht="56.25" customHeight="1">
+    <row r="247" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E247" s="81"/>
       <c r="F247" s="93"/>
       <c r="G247" s="81"/>
       <c r="H247" s="81"/>
     </row>
-    <row r="248" spans="5:8" ht="56.25" customHeight="1">
+    <row r="248" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E248" s="81"/>
       <c r="F248" s="93"/>
       <c r="G248" s="81"/>
       <c r="H248" s="81"/>
     </row>
-    <row r="249" spans="5:8" ht="56.25" customHeight="1">
+    <row r="249" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E249" s="81"/>
       <c r="F249" s="93"/>
       <c r="G249" s="81"/>
       <c r="H249" s="81"/>
     </row>
-    <row r="250" spans="5:8" ht="56.25" customHeight="1">
+    <row r="250" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E250" s="81"/>
       <c r="F250" s="93"/>
       <c r="G250" s="81"/>
       <c r="H250" s="81"/>
     </row>
-    <row r="251" spans="5:8" ht="56.25" customHeight="1">
+    <row r="251" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E251" s="81"/>
       <c r="F251" s="93"/>
       <c r="G251" s="81"/>
       <c r="H251" s="81"/>
     </row>
-    <row r="252" spans="5:8" ht="56.25" customHeight="1">
+    <row r="252" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E252" s="81"/>
       <c r="F252" s="93"/>
       <c r="G252" s="81"/>
       <c r="H252" s="81"/>
     </row>
-    <row r="253" spans="5:8" ht="56.25" customHeight="1">
+    <row r="253" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E253" s="81"/>
       <c r="F253" s="93"/>
       <c r="G253" s="81"/>
       <c r="H253" s="81"/>
     </row>
-    <row r="254" spans="5:8" ht="56.25" customHeight="1">
+    <row r="254" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E254" s="81"/>
       <c r="F254" s="93"/>
       <c r="G254" s="81"/>
       <c r="H254" s="81"/>
     </row>
-    <row r="255" spans="5:8" ht="56.25" customHeight="1">
+    <row r="255" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E255" s="81"/>
       <c r="F255" s="93"/>
       <c r="G255" s="81"/>
       <c r="H255" s="81"/>
     </row>
-    <row r="256" spans="5:8" ht="56.25" customHeight="1">
+    <row r="256" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E256" s="81"/>
       <c r="F256" s="93"/>
       <c r="G256" s="81"/>
       <c r="H256" s="81"/>
     </row>
-    <row r="257" spans="5:8" ht="56.25" customHeight="1">
+    <row r="257" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E257" s="81"/>
       <c r="F257" s="93"/>
       <c r="G257" s="81"/>
       <c r="H257" s="81"/>
     </row>
-    <row r="258" spans="5:8" ht="56.25" customHeight="1">
+    <row r="258" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E258" s="81"/>
       <c r="F258" s="93"/>
       <c r="G258" s="81"/>
       <c r="H258" s="81"/>
     </row>
-    <row r="259" spans="5:8" ht="56.25" customHeight="1">
+    <row r="259" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E259" s="81"/>
       <c r="F259" s="93"/>
       <c r="G259" s="81"/>
       <c r="H259" s="81"/>
     </row>
-    <row r="260" spans="5:8" ht="56.25" customHeight="1">
+    <row r="260" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E260" s="81"/>
       <c r="F260" s="93"/>
       <c r="G260" s="81"/>
       <c r="H260" s="81"/>
     </row>
-    <row r="261" spans="5:8" ht="56.25" customHeight="1">
+    <row r="261" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E261" s="81"/>
       <c r="F261" s="93"/>
       <c r="G261" s="81"/>
       <c r="H261" s="81"/>
     </row>
-    <row r="262" spans="5:8" ht="56.25" customHeight="1">
+    <row r="262" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E262" s="81"/>
       <c r="F262" s="93"/>
       <c r="G262" s="81"/>
       <c r="H262" s="81"/>
     </row>
-    <row r="263" spans="5:8" ht="56.25" customHeight="1">
+    <row r="263" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E263" s="81"/>
       <c r="F263" s="93"/>
       <c r="G263" s="81"/>
       <c r="H263" s="81"/>
     </row>
-    <row r="264" spans="5:8" ht="56.25" customHeight="1">
+    <row r="264" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E264" s="81"/>
       <c r="F264" s="93"/>
       <c r="G264" s="81"/>
       <c r="H264" s="81"/>
     </row>
-    <row r="265" spans="5:8" ht="56.25" customHeight="1">
+    <row r="265" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E265" s="81"/>
       <c r="F265" s="93"/>
       <c r="G265" s="81"/>
       <c r="H265" s="81"/>
     </row>
-    <row r="266" spans="5:8" ht="56.25" customHeight="1">
+    <row r="266" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E266" s="81"/>
       <c r="F266" s="93"/>
       <c r="G266" s="81"/>
       <c r="H266" s="81"/>
     </row>
-    <row r="267" spans="5:8" ht="56.25" customHeight="1">
+    <row r="267" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E267" s="81"/>
       <c r="F267" s="93"/>
       <c r="G267" s="81"/>
       <c r="H267" s="81"/>
     </row>
-    <row r="268" spans="5:8" ht="56.25" customHeight="1">
+    <row r="268" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E268" s="81"/>
       <c r="F268" s="93"/>
       <c r="G268" s="81"/>
       <c r="H268" s="81"/>
     </row>
-    <row r="269" spans="5:8" ht="56.25" customHeight="1">
+    <row r="269" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E269" s="81"/>
       <c r="F269" s="93"/>
       <c r="G269" s="81"/>
       <c r="H269" s="81"/>
     </row>
-    <row r="270" spans="5:8" ht="56.25" customHeight="1">
+    <row r="270" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E270" s="81"/>
       <c r="F270" s="93"/>
       <c r="G270" s="81"/>
       <c r="H270" s="81"/>
     </row>
-    <row r="271" spans="5:8" ht="56.25" customHeight="1">
+    <row r="271" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E271" s="81"/>
       <c r="F271" s="93"/>
       <c r="G271" s="81"/>
       <c r="H271" s="81"/>
     </row>
-    <row r="272" spans="5:8" ht="56.25" customHeight="1">
+    <row r="272" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E272" s="81"/>
       <c r="F272" s="93"/>
       <c r="G272" s="81"/>
       <c r="H272" s="81"/>
     </row>
-    <row r="273" spans="5:8" ht="56.25" customHeight="1">
+    <row r="273" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E273" s="81"/>
       <c r="F273" s="93"/>
       <c r="G273" s="81"/>
       <c r="H273" s="81"/>
     </row>
-    <row r="274" spans="5:8" ht="56.25" customHeight="1">
+    <row r="274" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E274" s="81"/>
       <c r="F274" s="93"/>
       <c r="G274" s="81"/>
       <c r="H274" s="81"/>
     </row>
-    <row r="275" spans="5:8" ht="56.25" customHeight="1">
+    <row r="275" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E275" s="81"/>
       <c r="F275" s="93"/>
       <c r="G275" s="81"/>
       <c r="H275" s="81"/>
     </row>
-    <row r="276" spans="5:8" ht="56.25" customHeight="1">
+    <row r="276" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E276" s="81"/>
       <c r="F276" s="93"/>
       <c r="G276" s="81"/>
       <c r="H276" s="81"/>
     </row>
-    <row r="277" spans="5:8" ht="56.25" customHeight="1">
+    <row r="277" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E277" s="81"/>
       <c r="F277" s="93"/>
       <c r="G277" s="81"/>
       <c r="H277" s="81"/>
     </row>
-    <row r="278" spans="5:8" ht="56.25" customHeight="1">
+    <row r="278" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E278" s="81"/>
       <c r="F278" s="93"/>
       <c r="G278" s="81"/>
       <c r="H278" s="81"/>
     </row>
-    <row r="279" spans="5:8" ht="56.25" customHeight="1">
+    <row r="279" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E279" s="81"/>
       <c r="F279" s="93"/>
       <c r="G279" s="81"/>
       <c r="H279" s="81"/>
     </row>
-    <row r="280" spans="5:8" ht="56.25" customHeight="1">
+    <row r="280" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E280" s="81"/>
       <c r="F280" s="93"/>
       <c r="G280" s="81"/>
       <c r="H280" s="81"/>
     </row>
-    <row r="281" spans="5:8" ht="56.25" customHeight="1">
+    <row r="281" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E281" s="81"/>
       <c r="F281" s="93"/>
       <c r="G281" s="81"/>
       <c r="H281" s="81"/>
     </row>
-    <row r="282" spans="5:8" ht="56.25" customHeight="1">
+    <row r="282" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E282" s="81"/>
       <c r="F282" s="93"/>
       <c r="G282" s="81"/>
       <c r="H282" s="81"/>
     </row>
-    <row r="283" spans="5:8" ht="56.25" customHeight="1">
+    <row r="283" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E283" s="81"/>
       <c r="F283" s="93"/>
       <c r="G283" s="81"/>
       <c r="H283" s="81"/>
     </row>
-    <row r="284" spans="5:8" ht="56.25" customHeight="1">
+    <row r="284" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E284" s="81"/>
       <c r="F284" s="93"/>
       <c r="G284" s="81"/>
       <c r="H284" s="81"/>
     </row>
-    <row r="285" spans="5:8" ht="56.25" customHeight="1">
+    <row r="285" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E285" s="81"/>
       <c r="F285" s="93"/>
       <c r="G285" s="81"/>
       <c r="H285" s="81"/>
     </row>
-    <row r="286" spans="5:8" ht="56.25" customHeight="1">
+    <row r="286" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E286" s="81"/>
       <c r="F286" s="93"/>
       <c r="G286" s="81"/>
       <c r="H286" s="81"/>
     </row>
-    <row r="287" spans="5:8" ht="56.25" customHeight="1">
+    <row r="287" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E287" s="81"/>
       <c r="F287" s="93"/>
       <c r="G287" s="81"/>
       <c r="H287" s="81"/>
     </row>
-    <row r="288" spans="5:8" ht="56.25" customHeight="1">
+    <row r="288" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E288" s="81"/>
       <c r="F288" s="93"/>
       <c r="G288" s="81"/>
       <c r="H288" s="81"/>
     </row>
-    <row r="289" spans="5:8" ht="56.25" customHeight="1">
+    <row r="289" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E289" s="81"/>
       <c r="F289" s="93"/>
       <c r="G289" s="81"/>
       <c r="H289" s="81"/>
     </row>
-    <row r="290" spans="5:8" ht="56.25" customHeight="1">
+    <row r="290" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E290" s="81"/>
       <c r="F290" s="93"/>
       <c r="G290" s="81"/>
       <c r="H290" s="81"/>
     </row>
-    <row r="291" spans="5:8" ht="56.25" customHeight="1">
+    <row r="291" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E291" s="81"/>
       <c r="F291" s="93"/>
       <c r="G291" s="81"/>
       <c r="H291" s="81"/>
     </row>
-    <row r="292" spans="5:8" ht="56.25" customHeight="1">
+    <row r="292" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E292" s="81"/>
       <c r="F292" s="93"/>
       <c r="G292" s="81"/>
       <c r="H292" s="81"/>
     </row>
-    <row r="293" spans="5:8" ht="56.25" customHeight="1">
+    <row r="293" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E293" s="81"/>
       <c r="F293" s="93"/>
       <c r="G293" s="81"/>
       <c r="H293" s="81"/>
     </row>
-    <row r="294" spans="5:8" ht="56.25" customHeight="1">
+    <row r="294" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E294" s="81"/>
       <c r="F294" s="93"/>
       <c r="G294" s="81"/>
       <c r="H294" s="81"/>
     </row>
-    <row r="295" spans="5:8" ht="56.25" customHeight="1">
+    <row r="295" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E295" s="81"/>
       <c r="F295" s="93"/>
       <c r="G295" s="81"/>
       <c r="H295" s="81"/>
     </row>
-    <row r="296" spans="5:8" ht="56.25" customHeight="1">
+    <row r="296" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E296" s="81"/>
       <c r="F296" s="93"/>
       <c r="G296" s="81"/>
       <c r="H296" s="81"/>
     </row>
-    <row r="297" spans="5:8" ht="56.25" customHeight="1">
+    <row r="297" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E297" s="81"/>
       <c r="F297" s="93"/>
       <c r="G297" s="81"/>
       <c r="H297" s="81"/>
     </row>
-    <row r="298" spans="5:8" ht="56.25" customHeight="1">
+    <row r="298" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E298" s="81"/>
       <c r="F298" s="93"/>
       <c r="G298" s="81"/>
       <c r="H298" s="81"/>
     </row>
-    <row r="299" spans="5:8" ht="56.25" customHeight="1">
+    <row r="299" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E299" s="81"/>
       <c r="F299" s="93"/>
       <c r="G299" s="81"/>
       <c r="H299" s="81"/>
     </row>
-    <row r="300" spans="5:8" ht="56.25" customHeight="1">
+    <row r="300" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E300" s="81"/>
       <c r="F300" s="93"/>
       <c r="G300" s="81"/>
       <c r="H300" s="81"/>
     </row>
-    <row r="301" spans="5:8" ht="56.25" customHeight="1">
+    <row r="301" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E301" s="81"/>
       <c r="F301" s="93"/>
       <c r="G301" s="81"/>
       <c r="H301" s="81"/>
     </row>
-    <row r="302" spans="5:8" ht="56.25" customHeight="1">
+    <row r="302" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E302" s="81"/>
       <c r="F302" s="93"/>
       <c r="G302" s="81"/>
       <c r="H302" s="81"/>
     </row>
-    <row r="303" spans="5:8" ht="56.25" customHeight="1">
+    <row r="303" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E303" s="81"/>
       <c r="F303" s="93"/>
       <c r="G303" s="81"/>
       <c r="H303" s="81"/>
     </row>
-    <row r="304" spans="5:8" ht="56.25" customHeight="1">
+    <row r="304" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E304" s="81"/>
       <c r="F304" s="93"/>
       <c r="G304" s="81"/>
       <c r="H304" s="81"/>
     </row>
-    <row r="305" spans="5:8" ht="56.25" customHeight="1">
+    <row r="305" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E305" s="81"/>
       <c r="F305" s="93"/>
       <c r="G305" s="81"/>
       <c r="H305" s="81"/>
     </row>
-    <row r="306" spans="5:8" ht="56.25" customHeight="1">
+    <row r="306" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E306" s="81"/>
       <c r="F306" s="93"/>
       <c r="G306" s="81"/>
       <c r="H306" s="81"/>
     </row>
-    <row r="307" spans="5:8" ht="56.25" customHeight="1">
+    <row r="307" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E307" s="81"/>
       <c r="F307" s="93"/>
       <c r="G307" s="81"/>
       <c r="H307" s="81"/>
     </row>
-    <row r="308" spans="5:8" ht="56.25" customHeight="1">
+    <row r="308" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E308" s="81"/>
       <c r="F308" s="93"/>
       <c r="G308" s="81"/>
       <c r="H308" s="81"/>
     </row>
-    <row r="309" spans="5:8" ht="56.25" customHeight="1">
+    <row r="309" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E309" s="81"/>
       <c r="F309" s="93"/>
       <c r="G309" s="81"/>
       <c r="H309" s="81"/>
     </row>
-    <row r="310" spans="5:8" ht="56.25" customHeight="1">
+    <row r="310" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="81"/>
       <c r="F310" s="93"/>
       <c r="G310" s="81"/>
       <c r="H310" s="81"/>
     </row>
-    <row r="311" spans="5:8" ht="56.25" customHeight="1">
+    <row r="311" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="81"/>
       <c r="F311" s="93"/>
       <c r="G311" s="81"/>
       <c r="H311" s="81"/>
     </row>
-    <row r="312" spans="5:8" ht="56.25" customHeight="1">
+    <row r="312" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E312" s="81"/>
       <c r="F312" s="93"/>
       <c r="G312" s="81"/>
       <c r="H312" s="81"/>
     </row>
-    <row r="313" spans="5:8" ht="56.25" customHeight="1">
+    <row r="313" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E313" s="81"/>
       <c r="F313" s="93"/>
       <c r="G313" s="81"/>
       <c r="H313" s="81"/>
     </row>
-    <row r="314" spans="5:8" ht="56.25" customHeight="1">
+    <row r="314" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E314" s="81"/>
       <c r="F314" s="93"/>
       <c r="G314" s="81"/>
       <c r="H314" s="81"/>
     </row>
-    <row r="315" spans="5:8" ht="56.25" customHeight="1">
+    <row r="315" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E315" s="81"/>
       <c r="F315" s="93"/>
       <c r="G315" s="81"/>
       <c r="H315" s="81"/>
     </row>
-    <row r="316" spans="5:8" ht="56.25" customHeight="1">
+    <row r="316" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E316" s="81"/>
       <c r="F316" s="93"/>
       <c r="G316" s="81"/>
       <c r="H316" s="81"/>
     </row>
-    <row r="317" spans="5:8" ht="56.25" customHeight="1">
+    <row r="317" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E317" s="81"/>
       <c r="F317" s="93"/>
       <c r="G317" s="81"/>
       <c r="H317" s="81"/>
     </row>
-    <row r="318" spans="5:8" ht="56.25" customHeight="1">
+    <row r="318" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E318" s="81"/>
       <c r="F318" s="93"/>
       <c r="G318" s="81"/>
       <c r="H318" s="81"/>
     </row>
-    <row r="319" spans="5:8" ht="56.25" customHeight="1">
+    <row r="319" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E319" s="81"/>
       <c r="F319" s="93"/>
       <c r="G319" s="81"/>
       <c r="H319" s="81"/>
     </row>
-    <row r="320" spans="5:8" ht="56.25" customHeight="1">
+    <row r="320" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E320" s="81"/>
       <c r="F320" s="93"/>
       <c r="G320" s="81"/>
       <c r="H320" s="81"/>
     </row>
-    <row r="321" spans="5:8" ht="56.25" customHeight="1">
+    <row r="321" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E321" s="81"/>
       <c r="F321" s="93"/>
       <c r="G321" s="81"/>
       <c r="H321" s="81"/>
     </row>
-    <row r="322" spans="5:8" ht="56.25" customHeight="1">
+    <row r="322" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E322" s="81"/>
       <c r="F322" s="93"/>
       <c r="G322" s="81"/>
       <c r="H322" s="81"/>
     </row>
-    <row r="323" spans="5:8" ht="56.25" customHeight="1">
+    <row r="323" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E323" s="81"/>
       <c r="F323" s="93"/>
       <c r="G323" s="81"/>
       <c r="H323" s="81"/>
     </row>
-    <row r="324" spans="5:8" ht="56.25" customHeight="1">
+    <row r="324" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E324" s="81"/>
       <c r="F324" s="93"/>
       <c r="G324" s="81"/>
       <c r="H324" s="81"/>
     </row>
-    <row r="325" spans="5:8" ht="56.25" customHeight="1">
+    <row r="325" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E325" s="81"/>
       <c r="F325" s="93"/>
       <c r="G325" s="81"/>
       <c r="H325" s="81"/>
     </row>
-    <row r="326" spans="5:8" ht="56.25" customHeight="1">
+    <row r="326" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E326" s="81"/>
       <c r="F326" s="93"/>
       <c r="G326" s="81"/>
       <c r="H326" s="81"/>
     </row>
-    <row r="327" spans="5:8" ht="56.25" customHeight="1">
+    <row r="327" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E327" s="81"/>
       <c r="F327" s="93"/>
       <c r="G327" s="81"/>
       <c r="H327" s="81"/>
     </row>
-    <row r="328" spans="5:8" ht="56.25" customHeight="1">
+    <row r="328" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E328" s="81"/>
       <c r="F328" s="93"/>
       <c r="G328" s="81"/>
       <c r="H328" s="81"/>
     </row>
-    <row r="329" spans="5:8" ht="56.25" customHeight="1">
+    <row r="329" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E329" s="81"/>
       <c r="F329" s="93"/>
       <c r="G329" s="81"/>
       <c r="H329" s="81"/>
     </row>
-    <row r="330" spans="5:8" ht="56.25" customHeight="1">
+    <row r="330" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E330" s="81"/>
       <c r="F330" s="93"/>
       <c r="G330" s="81"/>
       <c r="H330" s="81"/>
     </row>
-    <row r="331" spans="5:8" ht="56.25" customHeight="1">
+    <row r="331" spans="5:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E331" s="81"/>
       <c r="F331" s="93"/>
       <c r="G331" s="81"/>
@@ -8162,11 +8162,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C25"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B68:C68"/>
@@ -8183,6 +8178,11 @@
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8201,7 +8201,7 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="8" customWidth="1"/>
@@ -8212,7 +8212,7 @@
     <col min="7" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>166</v>
@@ -8221,7 +8221,7 @@
         <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>33</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="55.5" customHeight="1">
+    <row r="2" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1">
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22">
+    <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="44">
+    <row r="6" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22">
+    <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1">
+    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" customHeight="1">
+    <row r="9" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1">
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" customHeight="1">
+    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30.75" customHeight="1">
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="22">
+    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22">
+    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1">
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22">
+    <row r="17" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="22">
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22">
+    <row r="22" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="37.5" customHeight="1">
+    <row r="23" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1">
+    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22">
+    <row r="25" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22">
+    <row r="26" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22">
+    <row r="27" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22">
+    <row r="28" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22">
+    <row r="29" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="22">
+    <row r="30" spans="1:7" ht="22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -8712,11 +8712,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="36" customHeight="1">
+    <row r="31" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="118"/>
+      <c r="B31" s="116"/>
       <c r="C31" s="152" t="s">
         <v>19</v>
       </c>
@@ -8730,11 +8730,11 @@
         <v>493</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" customHeight="1">
+    <row r="32" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="120"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="153"/>
       <c r="D32" s="14" t="s">
         <v>20</v>
@@ -8747,186 +8747,186 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E35" s="10"/>
       <c r="F35" s="145"/>
       <c r="G35" s="146"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
     </row>
   </sheetData>
